--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d119434-Reviews-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Claremont-Hotel.h18549358.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,652 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r523920447-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>119434</t>
+  </si>
+  <si>
+    <t>523920447</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Dark, dingy, small.  And those are the Pros.</t>
+  </si>
+  <si>
+    <t>Oh my goodness.  These guys were still on the UCLA Stein Eye 'nearby hotel' listing, despite the fact that they no longer provide UCLA rates (recent management change eliminated these rates).  Figuring UCLA would've pre-cleared hotels on their listing, it never crossed my mind to check TripAdvisor before booking.  Shame on me.  Not since I was traveling in Europe on $25/day as a student in the 1980's have I stayed in such a depressing hotel.  I'll say first that the bedding appeared clean, and the bathrooms (which don't look like they've been renovated since the place was built in 1938) weren't disgusting.  But we had two rooms, a single and a double, and neither the rooms nor the hallway appeared as bright, cheery, and quaint as the photos.
+Our rooms were dark and dingy.  Horrible mattresses with sheets and a blanket; no bedspread.  The double room was reasonably-sized.  The single felt like a prison cell.  Open the bathroom door and it hits the toilet.  You almost have to step in to the shower to close the bathroom door and get to the toilet.
+No A/C.  No TV,  Don't *ALL* hotels have A/C and TVs?  I just did a quick Google search of Motel 6; the cheapest one I found in Greater Los Angeles was $60/night in Chino.  Guess what?  $60 gets you A/C &amp; TV at Motel 6.  
+The ceiling fan (which was an absolutely requirement) wobbled and ground away...Oh my goodness.  These guys were still on the UCLA Stein Eye 'nearby hotel' listing, despite the fact that they no longer provide UCLA rates (recent management change eliminated these rates).  Figuring UCLA would've pre-cleared hotels on their listing, it never crossed my mind to check TripAdvisor before booking.  Shame on me.  Not since I was traveling in Europe on $25/day as a student in the 1980's have I stayed in such a depressing hotel.  I'll say first that the bedding appeared clean, and the bathrooms (which don't look like they've been renovated since the place was built in 1938) weren't disgusting.  But we had two rooms, a single and a double, and neither the rooms nor the hallway appeared as bright, cheery, and quaint as the photos.Our rooms were dark and dingy.  Horrible mattresses with sheets and a blanket; no bedspread.  The double room was reasonably-sized.  The single felt like a prison cell.  Open the bathroom door and it hits the toilet.  You almost have to step in to the shower to close the bathroom door and get to the toilet.No A/C.  No TV,  Don't *ALL* hotels have A/C and TVs?  I just did a quick Google search of Motel 6; the cheapest one I found in Greater Los Angeles was $60/night in Chino.  Guess what?  $60 gets you A/C &amp; TV at Motel 6.  The ceiling fan (which was an absolutely requirement) wobbled and ground away loudly all night.  And whomever said the WiFi was 'high-speed' is comparing it to a 1984 acousticoupler modem.  I measured 0.5mbps -- slower than 2002 DSL service.I must be a snob.  I expect more for $140/night.  I don't expect The Fairmont, but I do expect a basic room with basic amenites.Let's leave on a positive note: the coffee was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Oh my goodness.  These guys were still on the UCLA Stein Eye 'nearby hotel' listing, despite the fact that they no longer provide UCLA rates (recent management change eliminated these rates).  Figuring UCLA would've pre-cleared hotels on their listing, it never crossed my mind to check TripAdvisor before booking.  Shame on me.  Not since I was traveling in Europe on $25/day as a student in the 1980's have I stayed in such a depressing hotel.  I'll say first that the bedding appeared clean, and the bathrooms (which don't look like they've been renovated since the place was built in 1938) weren't disgusting.  But we had two rooms, a single and a double, and neither the rooms nor the hallway appeared as bright, cheery, and quaint as the photos.
+Our rooms were dark and dingy.  Horrible mattresses with sheets and a blanket; no bedspread.  The double room was reasonably-sized.  The single felt like a prison cell.  Open the bathroom door and it hits the toilet.  You almost have to step in to the shower to close the bathroom door and get to the toilet.
+No A/C.  No TV,  Don't *ALL* hotels have A/C and TVs?  I just did a quick Google search of Motel 6; the cheapest one I found in Greater Los Angeles was $60/night in Chino.  Guess what?  $60 gets you A/C &amp; TV at Motel 6.  
+The ceiling fan (which was an absolutely requirement) wobbled and ground away...Oh my goodness.  These guys were still on the UCLA Stein Eye 'nearby hotel' listing, despite the fact that they no longer provide UCLA rates (recent management change eliminated these rates).  Figuring UCLA would've pre-cleared hotels on their listing, it never crossed my mind to check TripAdvisor before booking.  Shame on me.  Not since I was traveling in Europe on $25/day as a student in the 1980's have I stayed in such a depressing hotel.  I'll say first that the bedding appeared clean, and the bathrooms (which don't look like they've been renovated since the place was built in 1938) weren't disgusting.  But we had two rooms, a single and a double, and neither the rooms nor the hallway appeared as bright, cheery, and quaint as the photos.Our rooms were dark and dingy.  Horrible mattresses with sheets and a blanket; no bedspread.  The double room was reasonably-sized.  The single felt like a prison cell.  Open the bathroom door and it hits the toilet.  You almost have to step in to the shower to close the bathroom door and get to the toilet.No A/C.  No TV,  Don't *ALL* hotels have A/C and TVs?  I just did a quick Google search of Motel 6; the cheapest one I found in Greater Los Angeles was $60/night in Chino.  Guess what?  $60 gets you A/C &amp; TV at Motel 6.  The ceiling fan (which was an absolutely requirement) wobbled and ground away loudly all night.  And whomever said the WiFi was 'high-speed' is comparing it to a 1984 acousticoupler modem.  I measured 0.5mbps -- slower than 2002 DSL service.I must be a snob.  I expect more for $140/night.  I don't expect The Fairmont, but I do expect a basic room with basic amenites.Let's leave on a positive note: the coffee was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r518954590-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>518954590</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>My parents and grandparents stayed here this past weekend while they were in town for my wedding. If you are looking for a luxurious modern place to stay in LA with all the amenities and perks of being at a hotel like the Ritz, then this is not the place for you. If you are looking for a quiet bed and breakfast type place to help you forget you are in the crazy fast pace city of LA, then this is a nice option. It is located in Westwood Village so great neighborhood with plenty to do within walking distance. The hotel itself has a very comfortable feel to it as far as the furnishings. The only reason I did not give a 5 star review is because there is no AC which in this heat wave was a bit much.. and there is no elevator. My grandpa is disabled and had a hard time when they checked in because they were given a room on the 3rd floor. The staff was very quick to accommodate though! I called the front desk and explained the situation, and within minutes of the call they had a new room ready on the 1st floor for them. It was very sweet of them to go the extra mile to make sure they were comfortable and happy with their stay. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>My parents and grandparents stayed here this past weekend while they were in town for my wedding. If you are looking for a luxurious modern place to stay in LA with all the amenities and perks of being at a hotel like the Ritz, then this is not the place for you. If you are looking for a quiet bed and breakfast type place to help you forget you are in the crazy fast pace city of LA, then this is a nice option. It is located in Westwood Village so great neighborhood with plenty to do within walking distance. The hotel itself has a very comfortable feel to it as far as the furnishings. The only reason I did not give a 5 star review is because there is no AC which in this heat wave was a bit much.. and there is no elevator. My grandpa is disabled and had a hard time when they checked in because they were given a room on the 3rd floor. The staff was very quick to accommodate though! I called the front desk and explained the situation, and within minutes of the call they had a new room ready on the 1st floor for them. It was very sweet of them to go the extra mile to make sure they were comfortable and happy with their stay. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r506644607-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>506644607</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Not staying again</t>
+  </si>
+  <si>
+    <t>The smell of the building when you enter is not good. Everything is old and sound. You move on the bed and sound It doesnt have air condition. The photos they have in the page is not what you really see when you arrived.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r410184092-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>410184092</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Management stole my valuables</t>
+  </si>
+  <si>
+    <t>During my stay at the hotel I had to be hospitalized and my belongings were in the hotel and I was not able to arrange to move them. So three weeks after when I went to pick up my belongings all my valuables were gone. This includes my personal documents such as social security, ID, bank card, and also my electronics such as computer, iPhone 5s, and portable heater. The only thing that were return to me was my clothing. Don't trust any of your valuables in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>During my stay at the hotel I had to be hospitalized and my belongings were in the hotel and I was not able to arrange to move them. So three weeks after when I went to pick up my belongings all my valuables were gone. This includes my personal documents such as social security, ID, bank card, and also my electronics such as computer, iPhone 5s, and portable heater. The only thing that were return to me was my clothing. Don't trust any of your valuables in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r407223548-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>407223548</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Good choice for saving</t>
+  </si>
+  <si>
+    <t>Overall this place has great price and location, it is only a couple of blocks away from UCLA campus. The only flaw is that the parking space is very hard to find, if a person wants to have over night parking, it is advised to contact a garage parking earlier.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Overall this place has great price and location, it is only a couple of blocks away from UCLA campus. The only flaw is that the parking space is very hard to find, if a person wants to have over night parking, it is advised to contact a garage parking earlier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r401829935-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>401829935</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Bargain Accommodation In Westwood</t>
+  </si>
+  <si>
+    <t>We originally had an Airbnb booking that turned out to be disgusting so we had to make last minute arrangements and prices in LA- especially in the Westwood area aren't cheap.Imagine how relieved we were when we found the Claremont Hotel. They had space for our two week stay, it was affordable and the staff were so friendly.Naturally, the place has no AC and its summer when we stayed so it might be an issue for some but the weather gets better in the evenings so we didn't really miss the AC. There's no TV in the room too - there's one in the common room - so don't expect too much. All in, it's exactly as advertised. A nice, affordable and cosy place to stay in Westwood that won't break your wallet. With that in mind, lower your expectations a lil over the amenities but you will still get a clean, hygienic environment.Quick tip - if you are staying over the summer time, get the lower floors as it stays cooler vs the top floor(3rd floor).MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We originally had an Airbnb booking that turned out to be disgusting so we had to make last minute arrangements and prices in LA- especially in the Westwood area aren't cheap.Imagine how relieved we were when we found the Claremont Hotel. They had space for our two week stay, it was affordable and the staff were so friendly.Naturally, the place has no AC and its summer when we stayed so it might be an issue for some but the weather gets better in the evenings so we didn't really miss the AC. There's no TV in the room too - there's one in the common room - so don't expect too much. All in, it's exactly as advertised. A nice, affordable and cosy place to stay in Westwood that won't break your wallet. With that in mind, lower your expectations a lil over the amenities but you will still get a clean, hygienic environment.Quick tip - if you are staying over the summer time, get the lower floors as it stays cooler vs the top floor(3rd floor).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r377599190-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>377599190</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>We stayed here to watch one of my friends compete in bodybuilding over in Culver City. Walking up to the hotel, it gives you this old Hollywood feel and then you discover the hotel is 75 years old (cool!) and its totally a cool little place to stay. If anything the place feels like you're staying at your grandma's house or your auntie's. The rooms are more like bedrooms in a house, and theres a really big sitting room. Everything about this place just feels like I'm over someone's house, visiting. One thing I do have to note, because this is always the one major flaw in a hotel and it really isn't here, the beds are really firm and sleepable and they have really good pillows. I slept really well here! Oh! And there is really good water pressure and tons of hot water, a rare fine in LA! I want to stay here again any time were in LA!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed here to watch one of my friends compete in bodybuilding over in Culver City. Walking up to the hotel, it gives you this old Hollywood feel and then you discover the hotel is 75 years old (cool!) and its totally a cool little place to stay. If anything the place feels like you're staying at your grandma's house or your auntie's. The rooms are more like bedrooms in a house, and theres a really big sitting room. Everything about this place just feels like I'm over someone's house, visiting. One thing I do have to note, because this is always the one major flaw in a hotel and it really isn't here, the beds are really firm and sleepable and they have really good pillows. I slept really well here! Oh! And there is really good water pressure and tons of hot water, a rare fine in LA! I want to stay here again any time were in LA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r376829803-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>376829803</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Get What You Pay For</t>
+  </si>
+  <si>
+    <t>Listen folks, if you're looking a luxury hotel with lots of amenities and TV included, this is not the place for you. However, if you are looking for a cheap hotel in a prime location in LA, then this is the perfect spot. The Claremont Hotel is more reminiscent of spending a night at  my Grandma's house than anything: a nice comfy bed, cozy reading areas, and fresh coffee for me when I get up at 5am. My family uses this hotel when we have appointments at UCLA medical or when I want to see my friends in Westwood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r319678385-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319678385</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Triple bill credit card with no apology, no manager phone call and no clear refund process</t>
+  </si>
+  <si>
+    <t>I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues....I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues.  Don't give them your credit card!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues....I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues.  Don't give them your credit card!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r307439056-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>307439056</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Absolute worth for money</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 15 days.  The location is ideal for anybody going to UCLA.  A short walk.to UCLA.  Moreover, the hotel is in Westwood.  There are many eating places and shopping places nearby.  For those who are concerned about their budgets, this is a great place.  Do not expect great quality.  There is no TV in the room or any other benefits.  However, there is a kitchen and a living room with a TV.  We did not need these facilities as we just needed a place to sleep.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r303323832-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>303323832</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Dirty, smokey.  Stay somewhere else if you can afford.</t>
+  </si>
+  <si>
+    <t>This hotel had bad customer service (they use a paper calendar to keep track of reservations, and had no record of my reservation when I checked it).People smoke right outside the front door, which makes the "lobby" smell like smoke (actually, everything smelled like smoke).The rooms were dirty, smelly, and noisy.  I'm used to hostels, but at least those are clean.  I didn't want to touch anything in the room.Stay somewhere else if you can afford.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r278338927-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>278338927</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Only if price is really, absolutely necessary...</t>
+  </si>
+  <si>
+    <t>I would start by saying look elsewhere.  The hotel smelled, rooms were tiny, felt dirty.  I generally take my own supplies so lack was not an issue but be aware.  Bathroom was tiny, water pressure terrible.  The door opened right in front of the toilet so you have to maneuver your way in through the bathroom.  The whole place just felt dirty and unsanitary.When I booked the room they gave me a double which was not two beds, just a double bed.  So they fixed that by giving us two rooms for the same price as one with two occupants.  That was THE pleasant experience.I was having surgery the next morning and friend did not go back for the second night even though we had already paid.  Couch in hospital room was 100 times better.  Have been in budget hotels in Poland and Ukraine that put this to shame.  Needs a facelift badly.  Or as my friend who ended up with a skin rash after the first night, bulldoze it and start new!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I would start by saying look elsewhere.  The hotel smelled, rooms were tiny, felt dirty.  I generally take my own supplies so lack was not an issue but be aware.  Bathroom was tiny, water pressure terrible.  The door opened right in front of the toilet so you have to maneuver your way in through the bathroom.  The whole place just felt dirty and unsanitary.When I booked the room they gave me a double which was not two beds, just a double bed.  So they fixed that by giving us two rooms for the same price as one with two occupants.  That was THE pleasant experience.I was having surgery the next morning and friend did not go back for the second night even though we had already paid.  Couch in hospital room was 100 times better.  Have been in budget hotels in Poland and Ukraine that put this to shame.  Needs a facelift badly.  Or as my friend who ended up with a skin rash after the first night, bulldoze it and start new!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r203037321-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>203037321</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Not really the best in town</t>
+  </si>
+  <si>
+    <t>Recommend  for short stay. Rooms furnished in old style. Needs a bit of renewal. Breakfast very insufficient. Good position if you are transiting to Ucla but you could probably find better solution if you want to visit LA.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r201046503-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>201046503</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>A bit grim</t>
+  </si>
+  <si>
+    <t>This hotel is not for everyone.  The room is very bare: no pictures on the wall and thrift shop furniture.  I have seen better chairs on the sidewalk being thrown out.  There is no TV or air conditioning. The outside of the building and the parlor are nice, but the rooms leave something to be desired.  Better to investigate other options.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r159377291-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>159377291</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>It's a old place and very noise, the room it's a little scare. Poor service, don't have breakfast, but the room was clean.The location is great near UCLA, you have many options to eat, the neighbour is really nice!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r132622340-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132622340</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Good value and location</t>
+  </si>
+  <si>
+    <t>It is totally acceptable for it's price and location. Very reasonable and clean. Stay here again for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131873308-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131873308</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Basically a seedy live-in hotel</t>
+  </si>
+  <si>
+    <t>Location is excellent. But this place is basically an SRO in a fancy part of town. It smelled like Lysol, the carpet was threadbare, the furniture very old, no tv in the room, no toiletries! No parking. I mean, what kind of hotel has no tv in the room? Stay here only if you need to be in Westwood on a serious budget. Otherwise, pay more elsewhere.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131780885-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131780885</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Not worth the savings!</t>
+  </si>
+  <si>
+    <t>I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a...I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a too small for the room ceiling fan. Do yourself a favor and spend a little more and stay anywhere else! Location is good, but there are other places I will try next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a...I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a too small for the room ceiling fan. Do yourself a favor and spend a little more and stay anywhere else! Location is good, but there are other places I will try next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r129732244-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129732244</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Flea bag Hotel, stay away!!!</t>
+  </si>
+  <si>
+    <t>Despite the wonderful location and the cheap price, this hotel has fleas!  I personally have been bitten alive in the stingy and old bed.  The hotel smells funny, with crazy detergent they use.  I would not recommend staying here, unless you don't mind bringing fleas back home.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r126809171-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>126809171</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Great Euro Alternative</t>
+  </si>
+  <si>
+    <t>If you are looking for a solid alternative to the proudly-pricey hotels in L.A., then consider the Claremont. It's in Westwood, right off Wilshire so perfect for UCLA visitors, but also perfectly located for jaunts to Beverly Hills to the east or Santa Monica and the ocean to the west (you can even do this on the best kept secret in a town not known for keeping secrets: the LA rapid transit. Buses can take you in either direction cheaply and with frequency, day and night.)The hotel for the price gives you a spacious, functional, room, free wireless internet included, and a 24 hour service at the front desk with clerks who actually smile and laugh. If a hotel itself is not the purpose of your stay in L.A. then consider the Claremont and spend your money on other things!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>If you are looking for a solid alternative to the proudly-pricey hotels in L.A., then consider the Claremont. It's in Westwood, right off Wilshire so perfect for UCLA visitors, but also perfectly located for jaunts to Beverly Hills to the east or Santa Monica and the ocean to the west (you can even do this on the best kept secret in a town not known for keeping secrets: the LA rapid transit. Buses can take you in either direction cheaply and with frequency, day and night.)The hotel for the price gives you a spacious, functional, room, free wireless internet included, and a 24 hour service at the front desk with clerks who actually smile and laugh. If a hotel itself is not the purpose of your stay in L.A. then consider the Claremont and spend your money on other things!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r126749975-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>126749975</t>
+  </si>
+  <si>
+    <t>Friendly staff &amp; great value</t>
+  </si>
+  <si>
+    <t>This is an old hotel showing its age. However, you can't beat the location, value, cleanliness, friendliness and excellent service. This is known as our third home; we visit our UCLA student frequently: just ask the welcoming committee Leo (aka Leon), Scott, or Lupe at reservation and front desk. (Ask Lupe for a beach front room, a standing joke)There is a spacious visiting area, communal kitchen, free coffee/tea, and free WiFi. Basic room, no TV...so it's quiet. Lots of international visitors, we feel at home. At $69 a night, you can't find anything for that at Westwood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r67947781-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>67947781</t>
+  </si>
+  <si>
+    <t>06/18/2010</t>
+  </si>
+  <si>
+    <t>Quiet, No-Frills Hotel</t>
+  </si>
+  <si>
+    <t>This no-frills hotel has quiet rooms and is conveniently located to UCLA and Westwood's shops and restaurants.  The furniture is old and in somewhat poor condition, but adequate.  The staff members at the front desk are pleasant.  This hotel provides basic accommodations for the budget traveler.  If you are looking for in-room TV, in-room internet, free shampoo, or the other extras typically found in American hotels, however, you need to go elsewhere.  Although the hotel does not offer food, it does have a refrigerator for guests to store food (for example, groceries from the nearby Trader Joe's).  My window in my first-floor room was just a few inches above ground, and the screen was torn.  If you want to leave your window open during the day, a room above the first floor would be safer.  On the other hand, my room on the first floor got (weak) internet, whereas occupants in most of the hotel must go to the first-floor lounge to access the internet.I might stay here again, but I would probably spend a little extra to try the nicer hotel next door to this one.  It is in the same quiet location but with (supposedly) nicer accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>This no-frills hotel has quiet rooms and is conveniently located to UCLA and Westwood's shops and restaurants.  The furniture is old and in somewhat poor condition, but adequate.  The staff members at the front desk are pleasant.  This hotel provides basic accommodations for the budget traveler.  If you are looking for in-room TV, in-room internet, free shampoo, or the other extras typically found in American hotels, however, you need to go elsewhere.  Although the hotel does not offer food, it does have a refrigerator for guests to store food (for example, groceries from the nearby Trader Joe's).  My window in my first-floor room was just a few inches above ground, and the screen was torn.  If you want to leave your window open during the day, a room above the first floor would be safer.  On the other hand, my room on the first floor got (weak) internet, whereas occupants in most of the hotel must go to the first-floor lounge to access the internet.I might stay here again, but I would probably spend a little extra to try the nicer hotel next door to this one.  It is in the same quiet location but with (supposedly) nicer accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r63132479-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>63132479</t>
+  </si>
+  <si>
+    <t>05/03/2010</t>
+  </si>
+  <si>
+    <t>good location, simple but comfortable</t>
+  </si>
+  <si>
+    <t>I chose the Claremont Hotel because it was one block from the Hammer Museum and the UCLA campus where I was attending an exhibition and several lectures. A bus stop for Getty Center was nearby as was the UCLA Bruin shuttle. The price was affordable. It was a comfortable functional room with real wooden furniture. Push button soap was available in the bathrrom and shower. I brought my own cosmetics, so it was not a problem that shampoo and conditioner were not provided.  TV and wi-fi were available in the large homey living room. Good coffee for free and a vending machine for sodas was in the kitchen. Fresh towels daily and room made up. There was no parking on site but parking was available for a fee nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>I chose the Claremont Hotel because it was one block from the Hammer Museum and the UCLA campus where I was attending an exhibition and several lectures. A bus stop for Getty Center was nearby as was the UCLA Bruin shuttle. The price was affordable. It was a comfortable functional room with real wooden furniture. Push button soap was available in the bathrrom and shower. I brought my own cosmetics, so it was not a problem that shampoo and conditioner were not provided.  TV and wi-fi were available in the large homey living room. Good coffee for free and a vending machine for sodas was in the kitchen. Fresh towels daily and room made up. There was no parking on site but parking was available for a fee nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r61901042-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>61901042</t>
+  </si>
+  <si>
+    <t>04/19/2010</t>
+  </si>
+  <si>
+    <t>poor standing but OK for one night</t>
+  </si>
+  <si>
+    <t>poor standing but OK for one night - the owner was very nice and helpful but do not expect something greatest at such price.Anyway, the neighborhood is cool</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r20044244-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>20044244</t>
+  </si>
+  <si>
+    <t>09/13/2008</t>
+  </si>
+  <si>
+    <t>A Reasonable Deal</t>
+  </si>
+  <si>
+    <t>Rooms with one bed in this hotel are $82.  With two beds they are $92.  Such prices are unheard of in Los Angeles, especially near UCLA.  You obviously can't expect a jacuzzi and all sorts of luxuries for such a price.  If you want more, you need to pay a lot more elsewhere and stop complaining.  With this said, this hotel reminded me of so many inexpensive hotels one can find in Europe.  You get  a small but clean room with old and tired furniture (book a room with two beds if they still have one, because it's larger).  No television and no samples provided for the bathroom (which, by the way, is very small).  There is an inexpensive public parking nearby.  People who talk about bedbugs are stretching the truth, to say the least.  The hotel would not be allowed to stay open if it were true.  As a whole, a decent hotel for young people who can't afford to pay the huge prices charged in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms with one bed in this hotel are $82.  With two beds they are $92.  Such prices are unheard of in Los Angeles, especially near UCLA.  You obviously can't expect a jacuzzi and all sorts of luxuries for such a price.  If you want more, you need to pay a lot more elsewhere and stop complaining.  With this said, this hotel reminded me of so many inexpensive hotels one can find in Europe.  You get  a small but clean room with old and tired furniture (book a room with two beds if they still have one, because it's larger).  No television and no samples provided for the bathroom (which, by the way, is very small).  There is an inexpensive public parking nearby.  People who talk about bedbugs are stretching the truth, to say the least.  The hotel would not be allowed to stay open if it were true.  As a whole, a decent hotel for young people who can't afford to pay the huge prices charged in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7846712-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7846712</t>
+  </si>
+  <si>
+    <t>06/13/2007</t>
+  </si>
+  <si>
+    <t>unique for that unique type of person</t>
+  </si>
+  <si>
+    <t>Not for you monkey/sheep types. Definitely for those that can appreciate history/culture/preservation/community. Regarding the broken beds and the flea infestation , I would have to agree with the one review about neighboring fleabag motels that want Claremont's customers. Regarding peeling paint, would you rather they renovate and raise the price and/or cover the walls with wall paper, like everybody else, and unknowingly expose yourself to toxic mold that grows underneath the surface?  Personally, I have not experienced the peeling paint, unpleasant odors, or anything else of that nature.I have stayed at the Claremont on several different occasions. The only gripe I have is with those that are slamming this hotel for no justifiable reason.  Not recommended for those that must have it all and don't want to pay for it.  Highly recommended for those that can actually appreciate it for what it is. Think for yourself and you will be pleasantly surprised.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Not for you monkey/sheep types. Definitely for those that can appreciate history/culture/preservation/community. Regarding the broken beds and the flea infestation , I would have to agree with the one review about neighboring fleabag motels that want Claremont's customers. Regarding peeling paint, would you rather they renovate and raise the price and/or cover the walls with wall paper, like everybody else, and unknowingly expose yourself to toxic mold that grows underneath the surface?  Personally, I have not experienced the peeling paint, unpleasant odors, or anything else of that nature.I have stayed at the Claremont on several different occasions. The only gripe I have is with those that are slamming this hotel for no justifiable reason.  Not recommended for those that must have it all and don't want to pay for it.  Highly recommended for those that can actually appreciate it for what it is. Think for yourself and you will be pleasantly surprised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7568865-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7568865</t>
+  </si>
+  <si>
+    <t>05/08/2007</t>
+  </si>
+  <si>
+    <t>Bed cracked twice in the middle of the night</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this "tired" not charming hotel during a recent visit to UCLA.  As there were no suites left at the time of our booking, I stated that two rooms near each other would be ok.  Our children were given a room on the third floor and my husband and I were given a room on the second floor.  While my husband and I slept, the old bed broke underneath us not once but twice.  After the second time it collapsed, I told my husband leave it alone and let's just sleep on it sideways.  Throughout the night, I heard other beds collapsing through the paper thin walls and the international crowd screaming and cursing in surprise.  The price was cheap, the staff was friendly, the free coffee in the morning was decent.  This hotel provided lots of entertaining travel stories to share with friends and families, quite an adventure, but I wouldn't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this "tired" not charming hotel during a recent visit to UCLA.  As there were no suites left at the time of our booking, I stated that two rooms near each other would be ok.  Our children were given a room on the third floor and my husband and I were given a room on the second floor.  While my husband and I slept, the old bed broke underneath us not once but twice.  After the second time it collapsed, I told my husband leave it alone and let's just sleep on it sideways.  Throughout the night, I heard other beds collapsing through the paper thin walls and the international crowd screaming and cursing in surprise.  The price was cheap, the staff was friendly, the free coffee in the morning was decent.  This hotel provided lots of entertaining travel stories to share with friends and families, quite an adventure, but I wouldn't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5619249-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5619249</t>
+  </si>
+  <si>
+    <t>08/16/2006</t>
+  </si>
+  <si>
+    <t>Westwood/UCLA bargain</t>
+  </si>
+  <si>
+    <t>This "hotel" is basically a flophouse....a place for students on a budget, a decent alternative to a hostel.  Our 2-double bed room was $79 a night in 2006 for 3 people and I would call it a $29 room in a $50 location.  The furniture was old (original)...original OLD bath tiles &amp; flooring...not an updated or renovated place by any means.  No A/C but this is an area that gets SOME residual ocean breezes and is not as hot as Hollywood/L.A.  
+If "security" is your issue, this little hotel really doesn't have any but there is 24 hour desk coverage at the entrance. Also, it's in a residential area with apts and people nearby so just a scream would be heard by hundreds.  The Westwood area is safe round the clock with lots of students and residents roaming the streets, but like anywhere else you don't walk around screaming "I'm a tourist see my fanny pack and diamond rings?" Yes, there are a few homeless people around at times because they go wherever the crowds are, many movie theatres etc in the area attract crowds. Very safe area as L.A. goes but this is not Mayberry RFD
+ There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take...This "hotel" is basically a flophouse....a place for students on a budget, a decent alternative to a hostel.  Our 2-double bed room was $79 a night in 2006 for 3 people and I would call it a $29 room in a $50 location.  The furniture was old (original)...original OLD bath tiles &amp; flooring...not an updated or renovated place by any means.  No A/C but this is an area that gets SOME residual ocean breezes and is not as hot as Hollywood/L.A.  If "security" is your issue, this little hotel really doesn't have any but there is 24 hour desk coverage at the entrance. Also, it's in a residential area with apts and people nearby so just a scream would be heard by hundreds.  The Westwood area is safe round the clock with lots of students and residents roaming the streets, but like anywhere else you don't walk around screaming "I'm a tourist see my fanny pack and diamond rings?" Yes, there are a few homeless people around at times because they go wherever the crowds are, many movie theatres etc in the area attract crowds. Very safe area as L.A. goes but this is not Mayberry RFD There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take the other bus back towards your hotel.Very convenient to visiting the Getty Center, Beverly Hills, Santa Monica. On a deep budget, instead of a shuttle you could even take the city bus here from LAX without too much luggage.     If you have a car here the street parking/meters will be a hassle. There are parking garages a short walk as well as a huge grocery and a drug store. Would I put up my parents here if they were visiting UCLA? Only if they are used to "roughing it".  The location would probably be well-worth the dumpiness, but the Hilgard House nearby for $35 more a night is well worth it for the comfort.  The room was clean.  I think the other reviews that mention "fleas" are probably posted by the neighboring fleabag motels that want Claremont's customers.  And the "glowing" review calling this place charming is a little over the top in the other direction. Whether or not I would recommend this flophouse would totally depend on the customer.  For backpacking students who are used to hostels and European b&amp;bs, TOTALLY.  The location is great for students and travelers, one of the best in all of Los Angeles as far as convenient public transportation, cheap dining options etc. For UCLA parents? Not unless it's the only choice available in the area that you can afford. Expect the worse and you'll be pleasantly surprised.  Expect the Ritz and you'll be sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>This "hotel" is basically a flophouse....a place for students on a budget, a decent alternative to a hostel.  Our 2-double bed room was $79 a night in 2006 for 3 people and I would call it a $29 room in a $50 location.  The furniture was old (original)...original OLD bath tiles &amp; flooring...not an updated or renovated place by any means.  No A/C but this is an area that gets SOME residual ocean breezes and is not as hot as Hollywood/L.A.  
+If "security" is your issue, this little hotel really doesn't have any but there is 24 hour desk coverage at the entrance. Also, it's in a residential area with apts and people nearby so just a scream would be heard by hundreds.  The Westwood area is safe round the clock with lots of students and residents roaming the streets, but like anywhere else you don't walk around screaming "I'm a tourist see my fanny pack and diamond rings?" Yes, there are a few homeless people around at times because they go wherever the crowds are, many movie theatres etc in the area attract crowds. Very safe area as L.A. goes but this is not Mayberry RFD
+ There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take...This "hotel" is basically a flophouse....a place for students on a budget, a decent alternative to a hostel.  Our 2-double bed room was $79 a night in 2006 for 3 people and I would call it a $29 room in a $50 location.  The furniture was old (original)...original OLD bath tiles &amp; flooring...not an updated or renovated place by any means.  No A/C but this is an area that gets SOME residual ocean breezes and is not as hot as Hollywood/L.A.  If "security" is your issue, this little hotel really doesn't have any but there is 24 hour desk coverage at the entrance. Also, it's in a residential area with apts and people nearby so just a scream would be heard by hundreds.  The Westwood area is safe round the clock with lots of students and residents roaming the streets, but like anywhere else you don't walk around screaming "I'm a tourist see my fanny pack and diamond rings?" Yes, there are a few homeless people around at times because they go wherever the crowds are, many movie theatres etc in the area attract crowds. Very safe area as L.A. goes but this is not Mayberry RFD There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take the other bus back towards your hotel.Very convenient to visiting the Getty Center, Beverly Hills, Santa Monica. On a deep budget, instead of a shuttle you could even take the city bus here from LAX without too much luggage.     If you have a car here the street parking/meters will be a hassle. There are parking garages a short walk as well as a huge grocery and a drug store. Would I put up my parents here if they were visiting UCLA? Only if they are used to "roughing it".  The location would probably be well-worth the dumpiness, but the Hilgard House nearby for $35 more a night is well worth it for the comfort.  The room was clean.  I think the other reviews that mention "fleas" are probably posted by the neighboring fleabag motels that want Claremont's customers.  And the "glowing" review calling this place charming is a little over the top in the other direction. Whether or not I would recommend this flophouse would totally depend on the customer.  For backpacking students who are used to hostels and European b&amp;bs, TOTALLY.  The location is great for students and travelers, one of the best in all of Los Angeles as far as convenient public transportation, cheap dining options etc. For UCLA parents? Not unless it's the only choice available in the area that you can afford. Expect the worse and you'll be pleasantly surprised.  Expect the Ritz and you'll be sorry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5511659-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5511659</t>
+  </si>
+  <si>
+    <t>07/24/2006</t>
+  </si>
+  <si>
+    <t>a fleabag hotel--literally!</t>
+  </si>
+  <si>
+    <t>This hotel is listed on the UCLA website as a suggestion for visitors.  It is very inexpensive ($60/night), but you get what you pay for.  The hotel is very old and hasn't been updated.  There is a spacious balcony and lobby with free wireless internet, but the furniture is torn and stained.  The rooms are tiny, hot, dirty, and mine was flea infested (as were several others at the same time).  Management was indifferent at best.  I'd highly recommend the hotel next door--the Palace Royal Westwood.  Same great location, but clean, spacious rooms.  And, when you figure free hardwire internet, tv in room, ac, and free parking, it's a bargain relative to the Claremont.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is listed on the UCLA website as a suggestion for visitors.  It is very inexpensive ($60/night), but you get what you pay for.  The hotel is very old and hasn't been updated.  There is a spacious balcony and lobby with free wireless internet, but the furniture is torn and stained.  The rooms are tiny, hot, dirty, and mine was flea infested (as were several others at the same time).  Management was indifferent at best.  I'd highly recommend the hotel next door--the Palace Royal Westwood.  Same great location, but clean, spacious rooms.  And, when you figure free hardwire internet, tv in room, ac, and free parking, it's a bargain relative to the Claremont.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5358047-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5358047</t>
+  </si>
+  <si>
+    <t>06/17/2006</t>
+  </si>
+  <si>
+    <t>Worst service, non accomodating</t>
+  </si>
+  <si>
+    <t>Personally, I would not recommend this hotel.  The rooms are old, the hotel does not smell pleasant but given the relative affordibility one would think that it is worth a 2 night stay. Unfortunately, we had such a bad experience with the staff there that even that was not worth it.  This one particular staff was so unpleasant that we decided to go to the hotel next door even though it was 50 dollars more expensive.  I have never had such poor service and such a poor impression of any motel/hotel or any business for that matter.Overall, you'll have a better stay at any other hotel in westwood than this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Personally, I would not recommend this hotel.  The rooms are old, the hotel does not smell pleasant but given the relative affordibility one would think that it is worth a 2 night stay. Unfortunately, we had such a bad experience with the staff there that even that was not worth it.  This one particular staff was so unpleasant that we decided to go to the hotel next door even though it was 50 dollars more expensive.  I have never had such poor service and such a poor impression of any motel/hotel or any business for that matter.Overall, you'll have a better stay at any other hotel in westwood than this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r2998194-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>2998194</t>
+  </si>
+  <si>
+    <t>01/09/2005</t>
+  </si>
+  <si>
+    <t>you get what you pay for</t>
+  </si>
+  <si>
+    <t>If you're looking for an inexpensive hotel with a great location near UCLA, the Claremont fits the bill.  If you're looking for a clean and secure room, I suggest you look elsewhere.  I stayed there in early January, 2005, and would not go back.  The blankets on the beds were not just stained, they were truly dirty.  The hair and "crusty" spots on them suggested that they'd not been washed in quite some time.  The old mattresses and box springs sported large dark stains.  The doorknob lock (no deadbolt or chain) did little to make me feel secure.  I overheard a woman requesting a different room because she "couldn't stand the smell" in hers.  I was surprised to encounter these sorts of problems in what could've been a very charming older hotel in a seemingly upscale neighborhood.  I guess I should've been tipped off by the low rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2005</t>
+  </si>
+  <si>
+    <t>If you're looking for an inexpensive hotel with a great location near UCLA, the Claremont fits the bill.  If you're looking for a clean and secure room, I suggest you look elsewhere.  I stayed there in early January, 2005, and would not go back.  The blankets on the beds were not just stained, they were truly dirty.  The hair and "crusty" spots on them suggested that they'd not been washed in quite some time.  The old mattresses and box springs sported large dark stains.  The doorknob lock (no deadbolt or chain) did little to make me feel secure.  I overheard a woman requesting a different room because she "couldn't stand the smell" in hers.  I was surprised to encounter these sorts of problems in what could've been a very charming older hotel in a seemingly upscale neighborhood.  I guess I should've been tipped off by the low rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r1510582-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1510582</t>
+  </si>
+  <si>
+    <t>12/07/2003</t>
+  </si>
+  <si>
+    <t>No frills accommodations</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel early this year. The location is the best "feature" of the hotel. The rooms are old, the beds lumpy and the bathrooms very outdated. However, the service was very friendly, and as stated, the hotel is within walking distance to Westwood Village and UCLA Medical Center and main campus. You can't beat the cost, either. However, there are NO frills. No glasses or ice buckets, no in-room tv's, and no air conditioning. There was a very simple gas-fired wall heater in the room, which emitted fumes during operation. Of some concern were the flimsy "hollow core" doors and rather unsecure looking locks on the entry doors to the rooms from the corridor. I don't think it would take much effort to break into the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel early this year. The location is the best "feature" of the hotel. The rooms are old, the beds lumpy and the bathrooms very outdated. However, the service was very friendly, and as stated, the hotel is within walking distance to Westwood Village and UCLA Medical Center and main campus. You can't beat the cost, either. However, there are NO frills. No glasses or ice buckets, no in-room tv's, and no air conditioning. There was a very simple gas-fired wall heater in the room, which emitted fumes during operation. Of some concern were the flimsy "hollow core" doors and rather unsecure looking locks on the entry doors to the rooms from the corridor. I don't think it would take much effort to break into the rooms.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1294,2054 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>CanyonLakeDoug</t>
   </si>
   <si>
     <t>06/29/2018</t>
@@ -189,6 +192,9 @@
 The ceiling fan (which was an absolutely requirement) wobbled and ground away...Oh my goodness.  These guys were still on the UCLA Stein Eye 'nearby hotel' listing, despite the fact that they no longer provide UCLA rates (recent management change eliminated these rates).  Figuring UCLA would've pre-cleared hotels on their listing, it never crossed my mind to check TripAdvisor before booking.  Shame on me.  Not since I was traveling in Europe on $25/day as a student in the 1980's have I stayed in such a depressing hotel.  I'll say first that the bedding appeared clean, and the bathrooms (which don't look like they've been renovated since the place was built in 1938) weren't disgusting.  But we had two rooms, a single and a double, and neither the rooms nor the hallway appeared as bright, cheery, and quaint as the photos.Our rooms were dark and dingy.  Horrible mattresses with sheets and a blanket; no bedspread.  The double room was reasonably-sized.  The single felt like a prison cell.  Open the bathroom door and it hits the toilet.  You almost have to step in to the shower to close the bathroom door and get to the toilet.No A/C.  No TV,  Don't *ALL* hotels have A/C and TVs?  I just did a quick Google search of Motel 6; the cheapest one I found in Greater Los Angeles was $60/night in Chino.  Guess what?  $60 gets you A/C &amp; TV at Motel 6.  The ceiling fan (which was an absolutely requirement) wobbled and ground away loudly all night.  And whomever said the WiFi was 'high-speed' is comparing it to a 1984 acousticoupler modem.  I measured 0.5mbps -- slower than 2002 DSL service.I must be a snob.  I expect more for $140/night.  I don't expect The Fairmont, but I do expect a basic room with basic amenites.Let's leave on a positive note: the coffee was good.More</t>
   </si>
   <si>
+    <t>Despina_Millar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r518954590-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>My parents and grandparents stayed here this past weekend while they were in town for my wedding. If you are looking for a luxurious modern place to stay in LA with all the amenities and perks of being at a hotel like the Ritz, then this is not the place for you. If you are looking for a quiet bed and breakfast type place to help you forget you are in the crazy fast pace city of LA, then this is a nice option. It is located in Westwood Village so great neighborhood with plenty to do within walking distance. The hotel itself has a very comfortable feel to it as far as the furnishings. The only reason I did not give a 5 star review is because there is no AC which in this heat wave was a bit much.. and there is no elevator. My grandpa is disabled and had a hard time when they checked in because they were given a room on the 3rd floor. The staff was very quick to accommodate though! I called the front desk and explained the situation, and within minutes of the call they had a new room ready on the 1st floor for them. It was very sweet of them to go the extra mile to make sure they were comfortable and happy with their stay. :)More</t>
   </si>
   <si>
+    <t>Belkis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r506644607-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Maria C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r410184092-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>During my stay at the hotel I had to be hospitalized and my belongings were in the hotel and I was not able to arrange to move them. So three weeks after when I went to pick up my belongings all my valuables were gone. This includes my personal documents such as social security, ID, bank card, and also my electronics such as computer, iPhone 5s, and portable heater. The only thing that were return to me was my clothing. Don't trust any of your valuables in this hotel.More</t>
   </si>
   <si>
+    <t>Teeeea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r407223548-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>Overall this place has great price and location, it is only a couple of blocks away from UCLA campus. The only flaw is that the parking space is very hard to find, if a person wants to have over night parking, it is advised to contact a garage parking earlier.More</t>
   </si>
   <si>
+    <t>charliebrown390</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r401829935-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>We originally had an Airbnb booking that turned out to be disgusting so we had to make last minute arrangements and prices in LA- especially in the Westwood area aren't cheap.Imagine how relieved we were when we found the Claremont Hotel. They had space for our two week stay, it was affordable and the staff were so friendly.Naturally, the place has no AC and its summer when we stayed so it might be an issue for some but the weather gets better in the evenings so we didn't really miss the AC. There's no TV in the room too - there's one in the common room - so don't expect too much. All in, it's exactly as advertised. A nice, affordable and cosy place to stay in Westwood that won't break your wallet. With that in mind, lower your expectations a lil over the amenities but you will still get a clean, hygienic environment.Quick tip - if you are staying over the summer time, get the lower floors as it stays cooler vs the top floor(3rd floor).More</t>
   </si>
   <si>
+    <t>AbraCadaverz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r377599190-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>We stayed here to watch one of my friends compete in bodybuilding over in Culver City. Walking up to the hotel, it gives you this old Hollywood feel and then you discover the hotel is 75 years old (cool!) and its totally a cool little place to stay. If anything the place feels like you're staying at your grandma's house or your auntie's. The rooms are more like bedrooms in a house, and theres a really big sitting room. Everything about this place just feels like I'm over someone's house, visiting. One thing I do have to note, because this is always the one major flaw in a hotel and it really isn't here, the beds are really firm and sleepable and they have really good pillows. I slept really well here! Oh! And there is really good water pressure and tons of hot water, a rare fine in LA! I want to stay here again any time were in LA!More</t>
   </si>
   <si>
+    <t>Debby A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r376829803-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>Listen folks, if you're looking a luxury hotel with lots of amenities and TV included, this is not the place for you. However, if you are looking for a cheap hotel in a prime location in LA, then this is the perfect spot. The Claremont Hotel is more reminiscent of spending a night at  my Grandma's house than anything: a nice comfy bed, cozy reading areas, and fresh coffee for me when I get up at 5am. My family uses this hotel when we have appointments at UCLA medical or when I want to see my friends in Westwood.</t>
   </si>
   <si>
+    <t>AR278</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r319678385-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues....I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues.  Don't give them your credit card!More</t>
   </si>
   <si>
+    <t>ajnathan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r307439056-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Alexandria P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r303323832-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>StevenNV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r278338927-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>I would start by saying look elsewhere.  The hotel smelled, rooms were tiny, felt dirty.  I generally take my own supplies so lack was not an issue but be aware.  Bathroom was tiny, water pressure terrible.  The door opened right in front of the toilet so you have to maneuver your way in through the bathroom.  The whole place just felt dirty and unsanitary.When I booked the room they gave me a double which was not two beds, just a double bed.  So they fixed that by giving us two rooms for the same price as one with two occupants.  That was THE pleasant experience.I was having surgery the next morning and friend did not go back for the second night even though we had already paid.  Couch in hospital room was 100 times better.  Have been in budget hotels in Poland and Ukraine that put this to shame.  Needs a facelift badly.  Or as my friend who ended up with a skin rash after the first night, bulldoze it and start new!More</t>
   </si>
   <si>
+    <t>Roberta D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r203037321-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Joseph D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r201046503-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>viviannlee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r159377291-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Kkmakibi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r132622340-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>It is totally acceptable for it's price and location. Very reasonable and clean. Stay here again for the price.</t>
   </si>
   <si>
+    <t>renemy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131873308-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Justine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131780885-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a...I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a too small for the room ceiling fan. Do yourself a favor and spend a little more and stay anywhere else! Location is good, but there are other places I will try next time.More</t>
   </si>
   <si>
+    <t>audreyCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r129732244-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>AintTalkin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r126809171-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -564,6 +624,9 @@
     <t>If you are looking for a solid alternative to the proudly-pricey hotels in L.A., then consider the Claremont. It's in Westwood, right off Wilshire so perfect for UCLA visitors, but also perfectly located for jaunts to Beverly Hills to the east or Santa Monica and the ocean to the west (you can even do this on the best kept secret in a town not known for keeping secrets: the LA rapid transit. Buses can take you in either direction cheaply and with frequency, day and night.)The hotel for the price gives you a spacious, functional, room, free wireless internet included, and a 24 hour service at the front desk with clerks who actually smile and laugh. If a hotel itself is not the purpose of your stay in L.A. then consider the Claremont and spend your money on other things!More</t>
   </si>
   <si>
+    <t>drKSG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r126749975-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -576,6 +639,9 @@
     <t>This is an old hotel showing its age. However, you can't beat the location, value, cleanliness, friendliness and excellent service. This is known as our third home; we visit our UCLA student frequently: just ask the welcoming committee Leo (aka Leon), Scott, or Lupe at reservation and front desk. (Ask Lupe for a beach front room, a standing joke)There is a spacious visiting area, communal kitchen, free coffee/tea, and free WiFi. Basic room, no TV...so it's quiet. Lots of international visitors, we feel at home. At $69 a night, you can't find anything for that at Westwood.</t>
   </si>
   <si>
+    <t>TravelingE3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r67947781-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -597,6 +663,9 @@
     <t>This no-frills hotel has quiet rooms and is conveniently located to UCLA and Westwood's shops and restaurants.  The furniture is old and in somewhat poor condition, but adequate.  The staff members at the front desk are pleasant.  This hotel provides basic accommodations for the budget traveler.  If you are looking for in-room TV, in-room internet, free shampoo, or the other extras typically found in American hotels, however, you need to go elsewhere.  Although the hotel does not offer food, it does have a refrigerator for guests to store food (for example, groceries from the nearby Trader Joe's).  My window in my first-floor room was just a few inches above ground, and the screen was torn.  If you want to leave your window open during the day, a room above the first floor would be safer.  On the other hand, my room on the first floor got (weak) internet, whereas occupants in most of the hotel must go to the first-floor lounge to access the internet.I might stay here again, but I would probably spend a little extra to try the nicer hotel next door to this one.  It is in the same quiet location but with (supposedly) nicer accommodations.More</t>
   </si>
   <si>
+    <t>purpledesert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r63132479-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -618,6 +687,9 @@
     <t>I chose the Claremont Hotel because it was one block from the Hammer Museum and the UCLA campus where I was attending an exhibition and several lectures. A bus stop for Getty Center was nearby as was the UCLA Bruin shuttle. The price was affordable. It was a comfortable functional room with real wooden furniture. Push button soap was available in the bathrrom and shower. I brought my own cosmetics, so it was not a problem that shampoo and conditioner were not provided.  TV and wi-fi were available in the large homey living room. Good coffee for free and a vending machine for sodas was in the kitchen. Fresh towels daily and room made up. There was no parking on site but parking was available for a fee nearby.More</t>
   </si>
   <si>
+    <t>yanspace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r61901042-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -636,6 +708,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>123Avila</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r20044244-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -654,6 +729,9 @@
     <t>Rooms with one bed in this hotel are $82.  With two beds they are $92.  Such prices are unheard of in Los Angeles, especially near UCLA.  You obviously can't expect a jacuzzi and all sorts of luxuries for such a price.  If you want more, you need to pay a lot more elsewhere and stop complaining.  With this said, this hotel reminded me of so many inexpensive hotels one can find in Europe.  You get  a small but clean room with old and tired furniture (book a room with two beds if they still have one, because it's larger).  No television and no samples provided for the bathroom (which, by the way, is very small).  There is an inexpensive public parking nearby.  People who talk about bedbugs are stretching the truth, to say the least.  The hotel would not be allowed to stay open if it were true.  As a whole, a decent hotel for young people who can't afford to pay the huge prices charged in LA.More</t>
   </si>
   <si>
+    <t>eskimokitty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7846712-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -675,6 +753,9 @@
     <t>Not for you monkey/sheep types. Definitely for those that can appreciate history/culture/preservation/community. Regarding the broken beds and the flea infestation , I would have to agree with the one review about neighboring fleabag motels that want Claremont's customers. Regarding peeling paint, would you rather they renovate and raise the price and/or cover the walls with wall paper, like everybody else, and unknowingly expose yourself to toxic mold that grows underneath the surface?  Personally, I have not experienced the peeling paint, unpleasant odors, or anything else of that nature.I have stayed at the Claremont on several different occasions. The only gripe I have is with those that are slamming this hotel for no justifiable reason.  Not recommended for those that must have it all and don't want to pay for it.  Highly recommended for those that can actually appreciate it for what it is. Think for yourself and you will be pleasantly surprised.More</t>
   </si>
   <si>
+    <t>lhasaapsoCalifornia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7568865-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -694,6 +775,9 @@
   </si>
   <si>
     <t>My family and I stayed at this "tired" not charming hotel during a recent visit to UCLA.  As there were no suites left at the time of our booking, I stated that two rooms near each other would be ok.  Our children were given a room on the third floor and my husband and I were given a room on the second floor.  While my husband and I slept, the old bed broke underneath us not once but twice.  After the second time it collapsed, I told my husband leave it alone and let's just sleep on it sideways.  Throughout the night, I heard other beds collapsing through the paper thin walls and the international crowd screaming and cursing in surprise.  The price was cheap, the staff was friendly, the free coffee in the morning was decent.  This hotel provided lots of entertaining travel stories to share with friends and families, quite an adventure, but I wouldn't stay here again.More</t>
+  </si>
+  <si>
+    <t>joesorce</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5619249-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -721,6 +805,9 @@
  There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take...This "hotel" is basically a flophouse....a place for students on a budget, a decent alternative to a hostel.  Our 2-double bed room was $79 a night in 2006 for 3 people and I would call it a $29 room in a $50 location.  The furniture was old (original)...original OLD bath tiles &amp; flooring...not an updated or renovated place by any means.  No A/C but this is an area that gets SOME residual ocean breezes and is not as hot as Hollywood/L.A.  If "security" is your issue, this little hotel really doesn't have any but there is 24 hour desk coverage at the entrance. Also, it's in a residential area with apts and people nearby so just a scream would be heard by hundreds.  The Westwood area is safe round the clock with lots of students and residents roaming the streets, but like anywhere else you don't walk around screaming "I'm a tourist see my fanny pack and diamond rings?" Yes, there are a few homeless people around at times because they go wherever the crowds are, many movie theatres etc in the area attract crowds. Very safe area as L.A. goes but this is not Mayberry RFD There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take the other bus back towards your hotel.Very convenient to visiting the Getty Center, Beverly Hills, Santa Monica. On a deep budget, instead of a shuttle you could even take the city bus here from LAX without too much luggage.     If you have a car here the street parking/meters will be a hassle. There are parking garages a short walk as well as a huge grocery and a drug store. Would I put up my parents here if they were visiting UCLA? Only if they are used to "roughing it".  The location would probably be well-worth the dumpiness, but the Hilgard House nearby for $35 more a night is well worth it for the comfort.  The room was clean.  I think the other reviews that mention "fleas" are probably posted by the neighboring fleabag motels that want Claremont's customers.  And the "glowing" review calling this place charming is a little over the top in the other direction. Whether or not I would recommend this flophouse would totally depend on the customer.  For backpacking students who are used to hostels and European b&amp;bs, TOTALLY.  The location is great for students and travelers, one of the best in all of Los Angeles as far as convenient public transportation, cheap dining options etc. For UCLA parents? Not unless it's the only choice available in the area that you can afford. Expect the worse and you'll be pleasantly surprised.  Expect the Ritz and you'll be sorry.More</t>
   </si>
   <si>
+    <t>WaverlySharon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5511659-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -737,6 +824,9 @@
   </si>
   <si>
     <t>This hotel is listed on the UCLA website as a suggestion for visitors.  It is very inexpensive ($60/night), but you get what you pay for.  The hotel is very old and hasn't been updated.  There is a spacious balcony and lobby with free wireless internet, but the furniture is torn and stained.  The rooms are tiny, hot, dirty, and mine was flea infested (as were several others at the same time).  Management was indifferent at best.  I'd highly recommend the hotel next door--the Palace Royal Westwood.  Same great location, but clean, spacious rooms.  And, when you figure free hardwire internet, tv in room, ac, and free parking, it's a bargain relative to the Claremont.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5358047-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -1298,43 +1388,47 @@
       <c r="A2" t="n">
         <v>45811</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>130696</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -1354,50 +1448,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>45811</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>130697</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1415,50 +1513,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>45811</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>130698</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1472,50 +1574,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>45811</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6537</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1531,56 +1637,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>45811</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>130699</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1598,56 +1708,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>45811</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>130700</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1659,56 +1773,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>45811</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>130701</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1722,50 +1840,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>45811</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>130702</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1783,50 +1905,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>45811</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>130703</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1842,50 +1968,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>45811</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>130704</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -1905,50 +2035,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>45811</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>130705</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1968,50 +2102,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>45811</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>130706</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2031,50 +2169,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>45811</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>74330</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2098,50 +2240,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>45811</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7533</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2165,50 +2311,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>45811</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130707</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2232,41 +2382,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>45811</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>130708</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -2295,50 +2449,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>45811</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>130709</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2362,50 +2520,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>45811</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>55230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2429,50 +2591,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>45811</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>130710</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2496,50 +2662,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>45811</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>130711</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2563,50 +2733,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>45811</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>130712</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2630,50 +2804,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>45811</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>130713</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2697,50 +2875,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>45811</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>130714</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2764,50 +2946,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>45811</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130715</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2831,41 +3017,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>45811</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130716</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -2894,50 +3084,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>45811</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>130717</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2961,50 +3155,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>45811</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>130718</v>
+      </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3026,50 +3224,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>45811</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130719</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3093,50 +3295,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>45811</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>130720</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3160,41 +3366,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>45811</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -3221,50 +3431,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>45811</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3286,41 +3500,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>45811</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
@@ -3339,7 +3557,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
@@ -1389,7 +1389,7 @@
         <v>45811</v>
       </c>
       <c r="B2" t="n">
-        <v>130696</v>
+        <v>161439</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1456,7 +1456,7 @@
         <v>45811</v>
       </c>
       <c r="B3" t="n">
-        <v>130697</v>
+        <v>161440</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -1521,7 +1521,7 @@
         <v>45811</v>
       </c>
       <c r="B4" t="n">
-        <v>130698</v>
+        <v>161441</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1651,7 +1651,7 @@
         <v>45811</v>
       </c>
       <c r="B6" t="n">
-        <v>130699</v>
+        <v>161442</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -1722,7 +1722,7 @@
         <v>45811</v>
       </c>
       <c r="B7" t="n">
-        <v>130700</v>
+        <v>161443</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -1787,7 +1787,7 @@
         <v>45811</v>
       </c>
       <c r="B8" t="n">
-        <v>130701</v>
+        <v>161444</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -1848,7 +1848,7 @@
         <v>45811</v>
       </c>
       <c r="B9" t="n">
-        <v>130702</v>
+        <v>161445</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -1913,7 +1913,7 @@
         <v>45811</v>
       </c>
       <c r="B10" t="n">
-        <v>130703</v>
+        <v>161446</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -1976,7 +1976,7 @@
         <v>45811</v>
       </c>
       <c r="B11" t="n">
-        <v>130704</v>
+        <v>161447</v>
       </c>
       <c r="C11" t="s">
         <v>121</v>
@@ -2043,7 +2043,7 @@
         <v>45811</v>
       </c>
       <c r="B12" t="n">
-        <v>130705</v>
+        <v>161448</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -2110,7 +2110,7 @@
         <v>45811</v>
       </c>
       <c r="B13" t="n">
-        <v>130706</v>
+        <v>161449</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -2319,7 +2319,7 @@
         <v>45811</v>
       </c>
       <c r="B16" t="n">
-        <v>130707</v>
+        <v>161450</v>
       </c>
       <c r="C16" t="s">
         <v>158</v>
@@ -2390,7 +2390,7 @@
         <v>45811</v>
       </c>
       <c r="B17" t="n">
-        <v>130708</v>
+        <v>161451</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -2457,7 +2457,7 @@
         <v>45811</v>
       </c>
       <c r="B18" t="n">
-        <v>130709</v>
+        <v>161452</v>
       </c>
       <c r="C18" t="s">
         <v>171</v>
@@ -2599,7 +2599,7 @@
         <v>45811</v>
       </c>
       <c r="B20" t="n">
-        <v>130710</v>
+        <v>161453</v>
       </c>
       <c r="C20" t="s">
         <v>185</v>
@@ -2670,7 +2670,7 @@
         <v>45811</v>
       </c>
       <c r="B21" t="n">
-        <v>130711</v>
+        <v>161454</v>
       </c>
       <c r="C21" t="s">
         <v>192</v>
@@ -2741,7 +2741,7 @@
         <v>45811</v>
       </c>
       <c r="B22" t="n">
-        <v>130712</v>
+        <v>161455</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -2812,7 +2812,7 @@
         <v>45811</v>
       </c>
       <c r="B23" t="n">
-        <v>130713</v>
+        <v>161456</v>
       </c>
       <c r="C23" t="s">
         <v>205</v>
@@ -2883,7 +2883,7 @@
         <v>45811</v>
       </c>
       <c r="B24" t="n">
-        <v>130714</v>
+        <v>161457</v>
       </c>
       <c r="C24" t="s">
         <v>213</v>
@@ -2954,7 +2954,7 @@
         <v>45811</v>
       </c>
       <c r="B25" t="n">
-        <v>130715</v>
+        <v>161458</v>
       </c>
       <c r="C25" t="s">
         <v>221</v>
@@ -3025,7 +3025,7 @@
         <v>45811</v>
       </c>
       <c r="B26" t="n">
-        <v>130716</v>
+        <v>161459</v>
       </c>
       <c r="C26" t="s">
         <v>228</v>
@@ -3092,7 +3092,7 @@
         <v>45811</v>
       </c>
       <c r="B27" t="n">
-        <v>130717</v>
+        <v>161460</v>
       </c>
       <c r="C27" t="s">
         <v>235</v>
@@ -3163,7 +3163,7 @@
         <v>45811</v>
       </c>
       <c r="B28" t="n">
-        <v>130718</v>
+        <v>161461</v>
       </c>
       <c r="C28" t="s">
         <v>243</v>
@@ -3232,7 +3232,7 @@
         <v>45811</v>
       </c>
       <c r="B29" t="n">
-        <v>130719</v>
+        <v>161462</v>
       </c>
       <c r="C29" t="s">
         <v>251</v>
@@ -3303,7 +3303,7 @@
         <v>45811</v>
       </c>
       <c r="B30" t="n">
-        <v>130720</v>
+        <v>161463</v>
       </c>
       <c r="C30" t="s">
         <v>259</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_108.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t>STR#</t>
   </si>
@@ -150,19 +150,88 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>CanyonLakeDoug</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r607418673-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>119434</t>
+  </si>
+  <si>
+    <t>607418673</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Bare bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here a few months ago. We needed a place close to our friend's home as there was a bunch of us and couldn't all stay in the same place. The price was very good. The rooms were tidy. But that was about it. They are very old rooms and very little in them. No tv. You have to put the comforter on the bed yourself and bathrooms are very clean but very dated. The hotel for the most part is quiet but you can on occasion hear people talking in the hallways.The staff is super nice.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r598039062-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>598039062</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing amazing, you get exactly what you pay for. Its cheap enough to stay there, the place is a little run down but its not the worst i’ve been in! There was a musky smell in the room but we only stayed there for a night so we just got out of there early the next morning! You can here people in the room above you when they are walking around but it wasnt anything too annoying. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r541185893-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541185893</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Do not expect anything more than the place to sleep and clean room.  The place is and with reasonable price (for LA price). Do not expect any extra, just a room and clean towels.  Good side, the staff are very pleasant and responsive.  It is located next to the Westwood village where you can find plenty of places to eat and drinks and it is only 10-25 minutes walk to UCLA campus, depends on where you are going. Oh, make sure that you have your cup or glass if you need to use.  It is not provided.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r534737484-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>534737484</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Great location, fair rate but old</t>
+  </si>
+  <si>
+    <t>The hotel is closed to UCLA main campus, about 10 minutes walk. Staff is friendly. However, the hotel is old and shower room is small. It’s hard to move a step in the bathroom. No refrigerator in the room. Only one wall socket was reachable in the room. The bed is OK but basic. During the period I stayed, there is construction nearby and it was noisy.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r523920447-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
-  </si>
-  <si>
-    <t>32655</t>
-  </si>
-  <si>
-    <t>119434</t>
   </si>
   <si>
     <t>523920447</t>
@@ -192,9 +261,6 @@
 The ceiling fan (which was an absolutely requirement) wobbled and ground away...Oh my goodness.  These guys were still on the UCLA Stein Eye 'nearby hotel' listing, despite the fact that they no longer provide UCLA rates (recent management change eliminated these rates).  Figuring UCLA would've pre-cleared hotels on their listing, it never crossed my mind to check TripAdvisor before booking.  Shame on me.  Not since I was traveling in Europe on $25/day as a student in the 1980's have I stayed in such a depressing hotel.  I'll say first that the bedding appeared clean, and the bathrooms (which don't look like they've been renovated since the place was built in 1938) weren't disgusting.  But we had two rooms, a single and a double, and neither the rooms nor the hallway appeared as bright, cheery, and quaint as the photos.Our rooms were dark and dingy.  Horrible mattresses with sheets and a blanket; no bedspread.  The double room was reasonably-sized.  The single felt like a prison cell.  Open the bathroom door and it hits the toilet.  You almost have to step in to the shower to close the bathroom door and get to the toilet.No A/C.  No TV,  Don't *ALL* hotels have A/C and TVs?  I just did a quick Google search of Motel 6; the cheapest one I found in Greater Los Angeles was $60/night in Chino.  Guess what?  $60 gets you A/C &amp; TV at Motel 6.  The ceiling fan (which was an absolutely requirement) wobbled and ground away loudly all night.  And whomever said the WiFi was 'high-speed' is comparing it to a 1984 acousticoupler modem.  I measured 0.5mbps -- slower than 2002 DSL service.I must be a snob.  I expect more for $140/night.  I don't expect The Fairmont, but I do expect a basic room with basic amenites.Let's leave on a positive note: the coffee was good.More</t>
   </si>
   <si>
-    <t>Despina_Millar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r518954590-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,9 +282,6 @@
     <t>My parents and grandparents stayed here this past weekend while they were in town for my wedding. If you are looking for a luxurious modern place to stay in LA with all the amenities and perks of being at a hotel like the Ritz, then this is not the place for you. If you are looking for a quiet bed and breakfast type place to help you forget you are in the crazy fast pace city of LA, then this is a nice option. It is located in Westwood Village so great neighborhood with plenty to do within walking distance. The hotel itself has a very comfortable feel to it as far as the furnishings. The only reason I did not give a 5 star review is because there is no AC which in this heat wave was a bit much.. and there is no elevator. My grandpa is disabled and had a hard time when they checked in because they were given a room on the 3rd floor. The staff was very quick to accommodate though! I called the front desk and explained the situation, and within minutes of the call they had a new room ready on the 1st floor for them. It was very sweet of them to go the extra mile to make sure they were comfortable and happy with their stay. :)More</t>
   </si>
   <si>
-    <t>Belkis M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r506644607-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -237,7 +300,59 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Maria C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r501163324-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>501163324</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>No Frills, No Thrills</t>
+  </si>
+  <si>
+    <t>Had to stay in Westwood area near UCLA for a couple of days for some training.
+The hotels in the area tend to be quite expensive. The Claremont's rates were the most reasonable, so I thought I would give it a try. Unfortunately, as the saying goes, "you get what you pay for."
+The Claremont is an old white building that looks like an apartment complex converted into a hotel. The property itself doesn't have its own parking, just street parking with limited hours. There is a Denny's restaurant just a few steps away. Of course, the surrounding Westwood Village has many good places to eat.
+Not surprisingly, this place still uses an actual key for the room, just like the old days, not a card key as most places do now.
+When I opened the door to my room, I was taken aback. I would say the room was Spartan in design, but I don't want to insult the memory of the Spartans. It was basically a cracker box with the kind of retro furniture you might find at a Goodwill thrift shop. The double bed didn't even have a bedspread, just a simple blanket and sheets and two flat pillows. I found the mattress to be a little on the soft side for my taste. 
+To say this is a "no frills" property would be an understatement. There was no TV, no air conditioning, no mini-fridge, no coffeemaker,...Had to stay in Westwood area near UCLA for a couple of days for some training.The hotels in the area tend to be quite expensive. The Claremont's rates were the most reasonable, so I thought I would give it a try. Unfortunately, as the saying goes, "you get what you pay for."The Claremont is an old white building that looks like an apartment complex converted into a hotel. The property itself doesn't have its own parking, just street parking with limited hours. There is a Denny's restaurant just a few steps away. Of course, the surrounding Westwood Village has many good places to eat.Not surprisingly, this place still uses an actual key for the room, just like the old days, not a card key as most places do now.When I opened the door to my room, I was taken aback. I would say the room was Spartan in design, but I don't want to insult the memory of the Spartans. It was basically a cracker box with the kind of retro furniture you might find at a Goodwill thrift shop. The double bed didn't even have a bedspread, just a simple blanket and sheets and two flat pillows. I found the mattress to be a little on the soft side for my taste. To say this is a "no frills" property would be an understatement. There was no TV, no air conditioning, no mini-fridge, no coffeemaker, just a couple of electrical outlets, and no fan, plastic cups, or hair dryer in the bathroom. They will let you borrow a hair dryer, though, if you ask for one at the front desk. I found the water pressure in the shower to be just average, but at least there was shampoo and soap available.With my luck, I just happened to stay here during one of the hottest weekends in LA history, so the ceiling fan (and my sweat glands) got quite a work out. To be fair, the room did look to be clean and there was a better than average amount of closet space. That's about all I can say on the positive side.I wouldn't stay here again, nor can I recommend anyone else to unless you keep your expectations really low. MoreShow less</t>
+  </si>
+  <si>
+    <t>Had to stay in Westwood area near UCLA for a couple of days for some training.
+The hotels in the area tend to be quite expensive. The Claremont's rates were the most reasonable, so I thought I would give it a try. Unfortunately, as the saying goes, "you get what you pay for."
+The Claremont is an old white building that looks like an apartment complex converted into a hotel. The property itself doesn't have its own parking, just street parking with limited hours. There is a Denny's restaurant just a few steps away. Of course, the surrounding Westwood Village has many good places to eat.
+Not surprisingly, this place still uses an actual key for the room, just like the old days, not a card key as most places do now.
+When I opened the door to my room, I was taken aback. I would say the room was Spartan in design, but I don't want to insult the memory of the Spartans. It was basically a cracker box with the kind of retro furniture you might find at a Goodwill thrift shop. The double bed didn't even have a bedspread, just a simple blanket and sheets and two flat pillows. I found the mattress to be a little on the soft side for my taste. 
+To say this is a "no frills" property would be an understatement. There was no TV, no air conditioning, no mini-fridge, no coffeemaker,...Had to stay in Westwood area near UCLA for a couple of days for some training.The hotels in the area tend to be quite expensive. The Claremont's rates were the most reasonable, so I thought I would give it a try. Unfortunately, as the saying goes, "you get what you pay for."The Claremont is an old white building that looks like an apartment complex converted into a hotel. The property itself doesn't have its own parking, just street parking with limited hours. There is a Denny's restaurant just a few steps away. Of course, the surrounding Westwood Village has many good places to eat.Not surprisingly, this place still uses an actual key for the room, just like the old days, not a card key as most places do now.When I opened the door to my room, I was taken aback. I would say the room was Spartan in design, but I don't want to insult the memory of the Spartans. It was basically a cracker box with the kind of retro furniture you might find at a Goodwill thrift shop. The double bed didn't even have a bedspread, just a simple blanket and sheets and two flat pillows. I found the mattress to be a little on the soft side for my taste. To say this is a "no frills" property would be an understatement. There was no TV, no air conditioning, no mini-fridge, no coffeemaker, just a couple of electrical outlets, and no fan, plastic cups, or hair dryer in the bathroom. They will let you borrow a hair dryer, though, if you ask for one at the front desk. I found the water pressure in the shower to be just average, but at least there was shampoo and soap available.With my luck, I just happened to stay here during one of the hottest weekends in LA history, so the ceiling fan (and my sweat glands) got quite a work out. To be fair, the room did look to be clean and there was a better than average amount of closet space. That's about all I can say on the positive side.I wouldn't stay here again, nor can I recommend anyone else to unless you keep your expectations really low. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r477144472-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>477144472</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent price, great location</t>
+  </si>
+  <si>
+    <t>I have been here for a couple of days, this place is very near to UCLA campus. I went there for a convention. The area is nice, quiet, there are several places where to have lunch or dinner. Very close to bus stations. You have to call them for booking, they are very competent and nice. I will definitely be here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>I have been here for a couple of days, this place is very near to UCLA campus. I went there for a convention. The area is nice, quiet, there are several places where to have lunch or dinner. Very close to bus stations. You have to call them for booking, they are very competent and nice. I will definitely be here in the future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r410184092-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -258,9 +373,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Management response:Responded June 7, 2017</t>
   </si>
   <si>
@@ -270,9 +382,6 @@
     <t>During my stay at the hotel I had to be hospitalized and my belongings were in the hotel and I was not able to arrange to move them. So three weeks after when I went to pick up my belongings all my valuables were gone. This includes my personal documents such as social security, ID, bank card, and also my electronics such as computer, iPhone 5s, and portable heater. The only thing that were return to me was my clothing. Don't trust any of your valuables in this hotel.More</t>
   </si>
   <si>
-    <t>Teeeea</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r407223548-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -294,9 +403,6 @@
     <t>Overall this place has great price and location, it is only a couple of blocks away from UCLA campus. The only flaw is that the parking space is very hard to find, if a person wants to have over night parking, it is advised to contact a garage parking earlier.More</t>
   </si>
   <si>
-    <t>charliebrown390</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r401829935-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -318,7 +424,43 @@
     <t>We originally had an Airbnb booking that turned out to be disgusting so we had to make last minute arrangements and prices in LA- especially in the Westwood area aren't cheap.Imagine how relieved we were when we found the Claremont Hotel. They had space for our two week stay, it was affordable and the staff were so friendly.Naturally, the place has no AC and its summer when we stayed so it might be an issue for some but the weather gets better in the evenings so we didn't really miss the AC. There's no TV in the room too - there's one in the common room - so don't expect too much. All in, it's exactly as advertised. A nice, affordable and cosy place to stay in Westwood that won't break your wallet. With that in mind, lower your expectations a lil over the amenities but you will still get a clean, hygienic environment.Quick tip - if you are staying over the summer time, get the lower floors as it stays cooler vs the top floor(3rd floor).More</t>
   </si>
   <si>
-    <t>AbraCadaverz</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r393253918-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>393253918</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>It was good until I needed it...</t>
+  </si>
+  <si>
+    <t>I had to travel from out of state to have major surgery at UCLA. I was originally scheduled to stay at the Tiverton house, but I arrived a day earlier, and stumbled into this hotel for a place to stay until my check- in time at the Tiverton. The front desk lady encouraged me to check the room out to make sure it was ok for me. It was a very small bedroom, with a very small bathroom, no tv in the room. There is a large lobby that has several sitting areas to either play cards, eat, sit and chat or watch tv on the large screen tv. I thought the place was extremely charming. The price was about 95 for two role (not exactly sure, as my concern is not necessarily about money, it is about personality, and cleanliness). It was a few bucks less than the Tiverton ( they do not offer medical rates), but the Tiverton includes free breakfast, free shuttles, is closer to hospital, free parking, AND I could have actually received additional discounts due to me having major surgery at UCLA, BUT, as I stated before, I am about charm and karma. I chose to stay my week at the Claremont. The tv in the lobby forced me out of the room, the windows were kept open to enjoy the fresh air, it's right down town, one of the cleaning ladies was so peaceful...I had to travel from out of state to have major surgery at UCLA. I was originally scheduled to stay at the Tiverton house, but I arrived a day earlier, and stumbled into this hotel for a place to stay until my check- in time at the Tiverton. The front desk lady encouraged me to check the room out to make sure it was ok for me. It was a very small bedroom, with a very small bathroom, no tv in the room. There is a large lobby that has several sitting areas to either play cards, eat, sit and chat or watch tv on the large screen tv. I thought the place was extremely charming. The price was about 95 for two role (not exactly sure, as my concern is not necessarily about money, it is about personality, and cleanliness). It was a few bucks less than the Tiverton ( they do not offer medical rates), but the Tiverton includes free breakfast, free shuttles, is closer to hospital, free parking, AND I could have actually received additional discounts due to me having major surgery at UCLA, BUT, as I stated before, I am about charm and karma. I chose to stay my week at the Claremont. The tv in the lobby forced me out of the room, the windows were kept open to enjoy the fresh air, it's right down town, one of the cleaning ladies was so peaceful and spiritually kind, as if I could make a home at Claremont. Wellllllll, it wasn't more than a few days when shift change came. There was a reason why I needed surgery, and part of it was because of my chronic pain and inability to sleep. The change in shift brought in people who seemed to sleep in the front desk area, and would grunt when I asked for anything as if I was bothering them, so I would feel guilty if I needed something like toilet paper, coffee, or soap in my room. I felt guilty, so I waited for the nice lady (maybe she was from Jamaica, not sure, who happily did everything, and encouraged me to let them know if I needed anything). The worse part about it was when I had my surgery, and finally came back to the room. I was going to be staying a day or two more, we would gauge it by pain and discomfort level. It was a very bad night. I had a catheter in, and pain level was out the roof. I had a mishap, which I had an accident, my meds and such spilled all over the medical bed sheets and blankets. I went out to the sleeping man, embarrassingly so, and asked for new sheets, blankets, and towels, he grumbled, gave me sheets, but was mumbling the entire way, my shame was increasing. He gave me a couple sheets, seemed to complain that I wanted anything else, so I said never mind...around seven in the morning I was awoken to a groupOf people talking loudly, laughing, moving furniture loudly against the wall, so I went to the coffee room, and there were the employees, and their friends, having some sort of breakfast party. I had been up most of the night in pain, cleaning the mess I made in bathroom and bedroom, and I silently mentioned that they were quite loud. They looked at me as if I was imposing on them, then continued their loud social gathering, adjusting the two tables where all six or seven of them could more comfortably celebrate the morning. The idea of staring another day is out the door. I was told at the beginning that this place accommodated patients, and worked with the hospital... Nope. I felt as if my medical condition was imposing on this place. What a shame. Now, the most important time of my visit, the recovery time, has been disrupted. I am so disturbed. Do, I'm packing up, and moving on. I should have stayed at the Tiverton, because then I would have been able to heal shamelessly and comfortably. Too bad...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I had to travel from out of state to have major surgery at UCLA. I was originally scheduled to stay at the Tiverton house, but I arrived a day earlier, and stumbled into this hotel for a place to stay until my check- in time at the Tiverton. The front desk lady encouraged me to check the room out to make sure it was ok for me. It was a very small bedroom, with a very small bathroom, no tv in the room. There is a large lobby that has several sitting areas to either play cards, eat, sit and chat or watch tv on the large screen tv. I thought the place was extremely charming. The price was about 95 for two role (not exactly sure, as my concern is not necessarily about money, it is about personality, and cleanliness). It was a few bucks less than the Tiverton ( they do not offer medical rates), but the Tiverton includes free breakfast, free shuttles, is closer to hospital, free parking, AND I could have actually received additional discounts due to me having major surgery at UCLA, BUT, as I stated before, I am about charm and karma. I chose to stay my week at the Claremont. The tv in the lobby forced me out of the room, the windows were kept open to enjoy the fresh air, it's right down town, one of the cleaning ladies was so peaceful...I had to travel from out of state to have major surgery at UCLA. I was originally scheduled to stay at the Tiverton house, but I arrived a day earlier, and stumbled into this hotel for a place to stay until my check- in time at the Tiverton. The front desk lady encouraged me to check the room out to make sure it was ok for me. It was a very small bedroom, with a very small bathroom, no tv in the room. There is a large lobby that has several sitting areas to either play cards, eat, sit and chat or watch tv on the large screen tv. I thought the place was extremely charming. The price was about 95 for two role (not exactly sure, as my concern is not necessarily about money, it is about personality, and cleanliness). It was a few bucks less than the Tiverton ( they do not offer medical rates), but the Tiverton includes free breakfast, free shuttles, is closer to hospital, free parking, AND I could have actually received additional discounts due to me having major surgery at UCLA, BUT, as I stated before, I am about charm and karma. I chose to stay my week at the Claremont. The tv in the lobby forced me out of the room, the windows were kept open to enjoy the fresh air, it's right down town, one of the cleaning ladies was so peaceful and spiritually kind, as if I could make a home at Claremont. Wellllllll, it wasn't more than a few days when shift change came. There was a reason why I needed surgery, and part of it was because of my chronic pain and inability to sleep. The change in shift brought in people who seemed to sleep in the front desk area, and would grunt when I asked for anything as if I was bothering them, so I would feel guilty if I needed something like toilet paper, coffee, or soap in my room. I felt guilty, so I waited for the nice lady (maybe she was from Jamaica, not sure, who happily did everything, and encouraged me to let them know if I needed anything). The worse part about it was when I had my surgery, and finally came back to the room. I was going to be staying a day or two more, we would gauge it by pain and discomfort level. It was a very bad night. I had a catheter in, and pain level was out the roof. I had a mishap, which I had an accident, my meds and such spilled all over the medical bed sheets and blankets. I went out to the sleeping man, embarrassingly so, and asked for new sheets, blankets, and towels, he grumbled, gave me sheets, but was mumbling the entire way, my shame was increasing. He gave me a couple sheets, seemed to complain that I wanted anything else, so I said never mind...around seven in the morning I was awoken to a groupOf people talking loudly, laughing, moving furniture loudly against the wall, so I went to the coffee room, and there were the employees, and their friends, having some sort of breakfast party. I had been up most of the night in pain, cleaning the mess I made in bathroom and bedroom, and I silently mentioned that they were quite loud. They looked at me as if I was imposing on them, then continued their loud social gathering, adjusting the two tables where all six or seven of them could more comfortably celebrate the morning. The idea of staring another day is out the door. I was told at the beginning that this place accommodated patients, and worked with the hospital... Nope. I felt as if my medical condition was imposing on this place. What a shame. Now, the most important time of my visit, the recovery time, has been disrupted. I am so disturbed. Do, I'm packing up, and moving on. I should have stayed at the Tiverton, because then I would have been able to heal shamelessly and comfortably. Too bad...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r388004508-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388004508</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Great value for the money!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel for almost three weeks through May, 2016 and could not have been happier with the cozy, comfortable and convenient accommodations and the helpful staff. We were there for our son's graduation from UCLA and being alumni and having lived in the neighbourhood ourselves some twenty-five years ago, the homeliness of the hotel made us feel as if we had come back home!Very convenient to walk to campus and a short drive to many close attractions. They do not offer parking but the parking lot in the next street does offer monthly parking at a reasonable rate if you are intending a longer stay. Denny's is right next door and open 24 hours for easy dining! For smokers, there is designated smoking area available. The only recommendation I would make is for them to create a laundry space. That would make it perfect. We hope to visit again next year!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel for almost three weeks through May, 2016 and could not have been happier with the cozy, comfortable and convenient accommodations and the helpful staff. We were there for our son's graduation from UCLA and being alumni and having lived in the neighbourhood ourselves some twenty-five years ago, the homeliness of the hotel made us feel as if we had come back home!Very convenient to walk to campus and a short drive to many close attractions. They do not offer parking but the parking lot in the next street does offer monthly parking at a reasonable rate if you are intending a longer stay. Denny's is right next door and open 24 hours for easy dining! For smokers, there is designated smoking area available. The only recommendation I would make is for them to create a laundry space. That would make it perfect. We hope to visit again next year!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r377599190-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -336,15 +478,9 @@
     <t>We stayed here to watch one of my friends compete in bodybuilding over in Culver City. Walking up to the hotel, it gives you this old Hollywood feel and then you discover the hotel is 75 years old (cool!) and its totally a cool little place to stay. If anything the place feels like you're staying at your grandma's house or your auntie's. The rooms are more like bedrooms in a house, and theres a really big sitting room. Everything about this place just feels like I'm over someone's house, visiting. One thing I do have to note, because this is always the one major flaw in a hotel and it really isn't here, the beds are really firm and sleepable and they have really good pillows. I slept really well here! Oh! And there is really good water pressure and tons of hot water, a rare fine in LA! I want to stay here again any time were in LA!MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>We stayed here to watch one of my friends compete in bodybuilding over in Culver City. Walking up to the hotel, it gives you this old Hollywood feel and then you discover the hotel is 75 years old (cool!) and its totally a cool little place to stay. If anything the place feels like you're staying at your grandma's house or your auntie's. The rooms are more like bedrooms in a house, and theres a really big sitting room. Everything about this place just feels like I'm over someone's house, visiting. One thing I do have to note, because this is always the one major flaw in a hotel and it really isn't here, the beds are really firm and sleepable and they have really good pillows. I slept really well here! Oh! And there is really good water pressure and tons of hot water, a rare fine in LA! I want to stay here again any time were in LA!More</t>
   </si>
   <si>
-    <t>Debby A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r376829803-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -360,9 +496,6 @@
     <t>Listen folks, if you're looking a luxury hotel with lots of amenities and TV included, this is not the place for you. However, if you are looking for a cheap hotel in a prime location in LA, then this is the perfect spot. The Claremont Hotel is more reminiscent of spending a night at  my Grandma's house than anything: a nice comfy bed, cozy reading areas, and fresh coffee for me when I get up at 5am. My family uses this hotel when we have appointments at UCLA medical or when I want to see my friends in Westwood.</t>
   </si>
   <si>
-    <t>AR278</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r319678385-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,13 +514,40 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues....I paid for 6 nights for a colleague to stay at this hotel.  2 nights into the stay, I noticed I was double charged for the full stay (12 nights instead of 6) and contacted the hotel.  The hotel researched this, contacted me and informed me that this was not their issue.  I contacted my bank and was told the hotel had an issue with their payment terminal.  Today, the day of checkout of the guest, I realized I had now been triple charged (18 nights instead of 6) for the full 3-night stay.  I went into the hotel and they said they would need to take time to process the payment and were looking into it.  I called the hotel later with a simple request for the hotel manager to call me to talk through the refund process.  I was told the manager was unable to speak with me and would contact me in 3 days.  This is while they have deducted 18 nights of hotel stays from my account against a 6 night stay.  I am blown away that not a simple apology was given, nor could the hotel manager make a simple call to speak with me for 3 days.  i don't generally write Yelp reviews but clearly was compelled to do so in this instance.  Pretty amazing.  My only guess is the hotel is having cash issues and overcharging guests to fund their near-term cash issues.  Don't give them your credit card!More</t>
   </si>
   <si>
-    <t>ajnathan</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r310646956-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>310646956</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever In</t>
+  </si>
+  <si>
+    <t>I do not suggest this hotel for anybody. I don't care how cheap it is to stay here per night. The rooms are super old and there is no air conditioning. Too noisy and there's nothing special about it. Super plain and not worth spending $60 here. Never again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r308402387-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>308402387</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>UCLA visit</t>
+  </si>
+  <si>
+    <t>An average hotel. Nothing great about it, but if you are looking for a budget option then this is an ok place. Hotel is kept well. Room size is not that big. No proper closer to keep your stuff. Common fridge which is already over stuffed. Common microwave oven. You can feel free to prepare your own tea or coffee. Washroom are small with a standing shower enough towels are provided. Bed is good enough. For the price what you pay i would say this is a good option. Close to UCLA and in the neabourhood you can find some grocery and restaurants.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r307439056-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -405,15 +565,9 @@
     <t>Stayed at this hotel for 15 days.  The location is ideal for anybody going to UCLA.  A short walk.to UCLA.  Moreover, the hotel is in Westwood.  There are many eating places and shopping places nearby.  For those who are concerned about their budgets, this is a great place.  Do not expect great quality.  There is no TV in the room or any other benefits.  However, there is a kitchen and a living room with a TV.  We did not need these facilities as we just needed a place to sleep.</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Alexandria P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r303323832-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -432,9 +586,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>StevenNV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r278338927-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -456,7 +607,40 @@
     <t>I would start by saying look elsewhere.  The hotel smelled, rooms were tiny, felt dirty.  I generally take my own supplies so lack was not an issue but be aware.  Bathroom was tiny, water pressure terrible.  The door opened right in front of the toilet so you have to maneuver your way in through the bathroom.  The whole place just felt dirty and unsanitary.When I booked the room they gave me a double which was not two beds, just a double bed.  So they fixed that by giving us two rooms for the same price as one with two occupants.  That was THE pleasant experience.I was having surgery the next morning and friend did not go back for the second night even though we had already paid.  Couch in hospital room was 100 times better.  Have been in budget hotels in Poland and Ukraine that put this to shame.  Needs a facelift badly.  Or as my friend who ended up with a skin rash after the first night, bulldoze it and start new!More</t>
   </si>
   <si>
-    <t>Roberta D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r224181754-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>224181754</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Cheap room rates</t>
+  </si>
+  <si>
+    <t>If you have a low budget, this is one good deal to stay. They have a common day room with a 40" TV, a coffee break room with refrigerator and microwave oven. The rooms got old decorations like you are in the 50's and the beds are making noise indicating that the beds are too old, too!  Considering the cleanliness, it is clean and the hotel reps are friendly and nice! I would still consider staying back again to this hotel because of the cheap price as compared to the hotels nearby!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r217699701-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>217699701</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Hotel of "no"</t>
+  </si>
+  <si>
+    <t>If you would like to stay in a hotel with no TV, no air conditioning, no little soaps and shampoos, no breakfast, no parking, and (virtually) no Internet, this is the place for you.   On the other hand, the furniture is antique, circa 1950, if you like that sort of thing.  We were particularly upset on check-out when we were chastised profusely by the young lady for not paying in full at check-in!  She went out of her way to say she had been very clear about this - having explained everything to us in Spanish!  (No one in our group speaks Spanish).  She left a very negative impression for the hotel when she could have simply asked us how we liked our stay and wished us a nice trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>If you would like to stay in a hotel with no TV, no air conditioning, no little soaps and shampoos, no breakfast, no parking, and (virtually) no Internet, this is the place for you.   On the other hand, the furniture is antique, circa 1950, if you like that sort of thing.  We were particularly upset on check-out when we were chastised profusely by the young lady for not paying in full at check-in!  She went out of her way to say she had been very clear about this - having explained everything to us in Spanish!  (No one in our group speaks Spanish).  She left a very negative impression for the hotel when she could have simply asked us how we liked our stay and wished us a nice trip.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r203037321-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -477,9 +661,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Joseph D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r201046503-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -498,9 +679,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>viviannlee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r159377291-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -519,7 +697,37 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>Kkmakibi</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r158498035-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>158498035</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Best location at this price, well connected kind staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was excellently located since my daughter is studying in UCLA which is just few steps from here. Very peaceful cozy place , very kind staff and i love the lounge area.  I would recommend for all parents who like to visit there kids. I will come again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r158239933-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>158239933</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed!</t>
+  </si>
+  <si>
+    <t>I enjoyed the atmosphere, am particularly fond of 'old' hotels. Previously visited The Drake in Chicago and The Moana Hotel in Honolulu.  The Claremont resort fee is one of the better ones I ever had to pay as it gave me access to the Spa &amp; Club while I was a guest. Could do better with the 'convenience store' on the property. Great views, if only the smog would go away!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r132622340-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -537,9 +745,6 @@
     <t>It is totally acceptable for it's price and location. Very reasonable and clean. Stay here again for the price.</t>
   </si>
   <si>
-    <t>renemy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131873308-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -558,9 +763,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>Justine P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131780885-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -579,7 +781,40 @@
     <t>I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a...I want to start off by saying that what you get for the price is a sleeping room, not a hotel room. By this I mean that you WILL NOT have a tv in your room or even a telephone to call the front desk. There will be NO SHAMPOO, BLOW DRYER OR EXTRA OUTLETS TO PLUG IN YOUR CELL PHONE OR COMPUTER, The soap will be the kind that comes out of a dispenser in a public bathroom (like a gas station). You will get a bed, a clock radio, and some very old furniture that frankly looks as if it was garbage picked. The carpet will be thin, old commercial grade and will have no padding underneath it. Expect to be stabbed all night with coils from your mattress. We were told there was a common fridge in the coffee room to keep some food in. When we got there it was filled to capacity with food that had been there since who knows when, and most of the time the ice machine in the fridge was not working properly. In addition to all this, THE SMELL in this place is awful. I would have opened the windows further to air it out, but the screens were all bent and did not fit the windows properly. I was afraid my children would fall out of the windows if I opened them too much,. ALSO NO AIR CONDITIONING-just a too small for the room ceiling fan. Do yourself a favor and spend a little more and stay anywhere else! Location is good, but there are other places I will try next time.More</t>
   </si>
   <si>
-    <t>audreyCA</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r131148582-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131148582</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent Value, Super Location</t>
+  </si>
+  <si>
+    <t>The location of this hotel is unbeatable: everything in Westwood in walking distance: supermarkets, restaurants, cinemas and even UCLA. You do not need a car, which would be difficult in other places in LA. The price is so low that you know upfront that this place is no fancy boutique neither a five star hotel, but a place to sleep, which is fine. The room we had for three was big and clean and we slept very well. No issue with bathroom as mentioned in other reviews. There is no breakfast and no parking. The staff of the front desk is very helpful and friendly - especially Leo. Also the housekeeping staff is very attentive. We will stay again in this hotel when in Westwood.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of this hotel is unbeatable: everything in Westwood in walking distance: supermarkets, restaurants, cinemas and even UCLA. You do not need a car, which would be difficult in other places in LA. The price is so low that you know upfront that this place is no fancy boutique neither a five star hotel, but a place to sleep, which is fine. The room we had for three was big and clean and we slept very well. No issue with bathroom as mentioned in other reviews. There is no breakfast and no parking. The staff of the front desk is very helpful and friendly - especially Leo. Also the housekeeping staff is very attentive. We will stay again in this hotel when in Westwood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r130509694-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130509694</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Do not stay at this Dump.</t>
+  </si>
+  <si>
+    <t>Yeah I know this place was built in 1939, and it says it is still decorated in that type of decor.... BUT they could have at least made the bathroom usable. The sink and tub are rusty and moldy. The mattresses are like sleeping on a hard wood floor.  No air or heat, no in room TV or radio &amp; like two electrical outlets in the entire room. Just overall disgusting.   Front desk staff was rude, with his feet kicked up on the counter watching TV &amp; eating a big plate of rice and beans. You can bet I WILL NEVER stay here again or recommend this dump, with the rudest staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Yeah I know this place was built in 1939, and it says it is still decorated in that type of decor.... BUT they could have at least made the bathroom usable. The sink and tub are rusty and moldy. The mattresses are like sleeping on a hard wood floor.  No air or heat, no in room TV or radio &amp; like two electrical outlets in the entire room. Just overall disgusting.   Front desk staff was rude, with his feet kicked up on the counter watching TV &amp; eating a big plate of rice and beans. You can bet I WILL NEVER stay here again or recommend this dump, with the rudest staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r129732244-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -600,9 +835,6 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>AintTalkin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r126809171-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -624,9 +856,6 @@
     <t>If you are looking for a solid alternative to the proudly-pricey hotels in L.A., then consider the Claremont. It's in Westwood, right off Wilshire so perfect for UCLA visitors, but also perfectly located for jaunts to Beverly Hills to the east or Santa Monica and the ocean to the west (you can even do this on the best kept secret in a town not known for keeping secrets: the LA rapid transit. Buses can take you in either direction cheaply and with frequency, day and night.)The hotel for the price gives you a spacious, functional, room, free wireless internet included, and a 24 hour service at the front desk with clerks who actually smile and laugh. If a hotel itself is not the purpose of your stay in L.A. then consider the Claremont and spend your money on other things!More</t>
   </si>
   <si>
-    <t>drKSG</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r126749975-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -639,7 +868,58 @@
     <t>This is an old hotel showing its age. However, you can't beat the location, value, cleanliness, friendliness and excellent service. This is known as our third home; we visit our UCLA student frequently: just ask the welcoming committee Leo (aka Leon), Scott, or Lupe at reservation and front desk. (Ask Lupe for a beach front room, a standing joke)There is a spacious visiting area, communal kitchen, free coffee/tea, and free WiFi. Basic room, no TV...so it's quiet. Lots of international visitors, we feel at home. At $69 a night, you can't find anything for that at Westwood.</t>
   </si>
   <si>
-    <t>TravelingE3</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r115900865-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115900865</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Excellent value for excellent location</t>
+  </si>
+  <si>
+    <t>First, this is a budget hotel and as a traveler, I frequent budget hotels.  We (my 17 year old son and I) found this hotel to suit our needs perfectly.  It is close to UCLA campus, which we were visiting and walking distance to many shops, cafes, restaurantsand even the Hammer Museum.  The location is very upscale and absolutely safe (I don't understand why other reviewers doubted the safety of the location).  The rooms suggest that this hotel is a converted apartment building since they are somewhat odd shapes.  Ours was very large, had wonderful windows overlooking a very small interior yard ("garden" would be a stretch).   Everything was clean, albeit there were some stains in the bathroom (as most budget hotels have).  Air conditioner worked well, although we preferred having the windows open.  I don't think there is a restaurant in this hotel, but many cafes nearby.  We did not find overnight parking to be a problem, but we noticed that there are some daytime parking restrictions.One of the shining stars was the staff.  they were very friendly, did everything to make our stay more enjoyable; gave good information about parking and great directions to every where we wanted to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>First, this is a budget hotel and as a traveler, I frequent budget hotels.  We (my 17 year old son and I) found this hotel to suit our needs perfectly.  It is close to UCLA campus, which we were visiting and walking distance to many shops, cafes, restaurantsand even the Hammer Museum.  The location is very upscale and absolutely safe (I don't understand why other reviewers doubted the safety of the location).  The rooms suggest that this hotel is a converted apartment building since they are somewhat odd shapes.  Ours was very large, had wonderful windows overlooking a very small interior yard ("garden" would be a stretch).   Everything was clean, albeit there were some stains in the bathroom (as most budget hotels have).  Air conditioner worked well, although we preferred having the windows open.  I don't think there is a restaurant in this hotel, but many cafes nearby.  We did not find overnight parking to be a problem, but we noticed that there are some daytime parking restrictions.One of the shining stars was the staff.  they were very friendly, did everything to make our stay more enjoyable; gave good information about parking and great directions to every where we wanted to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r114991710-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114991710</t>
+  </si>
+  <si>
+    <t>07/03/2011</t>
+  </si>
+  <si>
+    <t>Affordable Westwood Hotel</t>
+  </si>
+  <si>
+    <t>The Claremont Hotel is an ideal stop for anyone looking for an affordable hotel option in Westwood. It is extremely close to UCLA campus and is near the various things going on in Westood Village.
+I stayed here for a few days in spring 2011 while visiting UCLA and checking out the area.  Is it luxury?  No.  However, it is affordable and isn't a complete dump like many other budget hotels can be.
+The fantastic price comes with extremely basic rooms.  They're certainly homey in that "Mom's decorations from the 1950s" sort of way and aren't 1970s/80s ugly.  The biggest downfall are the mattresses which could definitely use some replacement (at least in my room).  However, everything is kept clean and tidy.
+The only bathroom amenity is soap kept in a dispenser in the shower so be prepared with your own amenities if you want something more than bathroom hand soap.  Towels and face cloths are taken care of by housekeeping.
+There are some nice areas to sit in the hotel's "living room" (for lack of a better word) and coffee room.  However, if it's nice outside there's really no reason to stay in the hotel.
+I didn't bother with the wifi so I have no idea how the connection is.  The same goes for parking as I had no car.
+The end story is that if you're looking for somewhere clean and reasonably comfy to crash for a few...The Claremont Hotel is an ideal stop for anyone looking for an affordable hotel option in Westwood. It is extremely close to UCLA campus and is near the various things going on in Westood Village.I stayed here for a few days in spring 2011 while visiting UCLA and checking out the area.  Is it luxury?  No.  However, it is affordable and isn't a complete dump like many other budget hotels can be.The fantastic price comes with extremely basic rooms.  They're certainly homey in that "Mom's decorations from the 1950s" sort of way and aren't 1970s/80s ugly.  The biggest downfall are the mattresses which could definitely use some replacement (at least in my room).  However, everything is kept clean and tidy.The only bathroom amenity is soap kept in a dispenser in the shower so be prepared with your own amenities if you want something more than bathroom hand soap.  Towels and face cloths are taken care of by housekeeping.There are some nice areas to sit in the hotel's "living room" (for lack of a better word) and coffee room.  However, if it's nice outside there's really no reason to stay in the hotel.I didn't bother with the wifi so I have no idea how the connection is.  The same goes for parking as I had no car.The end story is that if you're looking for somewhere clean and reasonably comfy to crash for a few nights while at UCLA this is a great option.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>The Claremont Hotel is an ideal stop for anyone looking for an affordable hotel option in Westwood. It is extremely close to UCLA campus and is near the various things going on in Westood Village.
+I stayed here for a few days in spring 2011 while visiting UCLA and checking out the area.  Is it luxury?  No.  However, it is affordable and isn't a complete dump like many other budget hotels can be.
+The fantastic price comes with extremely basic rooms.  They're certainly homey in that "Mom's decorations from the 1950s" sort of way and aren't 1970s/80s ugly.  The biggest downfall are the mattresses which could definitely use some replacement (at least in my room).  However, everything is kept clean and tidy.
+The only bathroom amenity is soap kept in a dispenser in the shower so be prepared with your own amenities if you want something more than bathroom hand soap.  Towels and face cloths are taken care of by housekeeping.
+There are some nice areas to sit in the hotel's "living room" (for lack of a better word) and coffee room.  However, if it's nice outside there's really no reason to stay in the hotel.
+I didn't bother with the wifi so I have no idea how the connection is.  The same goes for parking as I had no car.
+The end story is that if you're looking for somewhere clean and reasonably comfy to crash for a few...The Claremont Hotel is an ideal stop for anyone looking for an affordable hotel option in Westwood. It is extremely close to UCLA campus and is near the various things going on in Westood Village.I stayed here for a few days in spring 2011 while visiting UCLA and checking out the area.  Is it luxury?  No.  However, it is affordable and isn't a complete dump like many other budget hotels can be.The fantastic price comes with extremely basic rooms.  They're certainly homey in that "Mom's decorations from the 1950s" sort of way and aren't 1970s/80s ugly.  The biggest downfall are the mattresses which could definitely use some replacement (at least in my room).  However, everything is kept clean and tidy.The only bathroom amenity is soap kept in a dispenser in the shower so be prepared with your own amenities if you want something more than bathroom hand soap.  Towels and face cloths are taken care of by housekeeping.There are some nice areas to sit in the hotel's "living room" (for lack of a better word) and coffee room.  However, if it's nice outside there's really no reason to stay in the hotel.I didn't bother with the wifi so I have no idea how the connection is.  The same goes for parking as I had no car.The end story is that if you're looking for somewhere clean and reasonably comfy to crash for a few nights while at UCLA this is a great option.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r67947781-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -663,9 +943,6 @@
     <t>This no-frills hotel has quiet rooms and is conveniently located to UCLA and Westwood's shops and restaurants.  The furniture is old and in somewhat poor condition, but adequate.  The staff members at the front desk are pleasant.  This hotel provides basic accommodations for the budget traveler.  If you are looking for in-room TV, in-room internet, free shampoo, or the other extras typically found in American hotels, however, you need to go elsewhere.  Although the hotel does not offer food, it does have a refrigerator for guests to store food (for example, groceries from the nearby Trader Joe's).  My window in my first-floor room was just a few inches above ground, and the screen was torn.  If you want to leave your window open during the day, a room above the first floor would be safer.  On the other hand, my room on the first floor got (weak) internet, whereas occupants in most of the hotel must go to the first-floor lounge to access the internet.I might stay here again, but I would probably spend a little extra to try the nicer hotel next door to this one.  It is in the same quiet location but with (supposedly) nicer accommodations.More</t>
   </si>
   <si>
-    <t>purpledesert</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r63132479-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -687,9 +964,6 @@
     <t>I chose the Claremont Hotel because it was one block from the Hammer Museum and the UCLA campus where I was attending an exhibition and several lectures. A bus stop for Getty Center was nearby as was the UCLA Bruin shuttle. The price was affordable. It was a comfortable functional room with real wooden furniture. Push button soap was available in the bathrrom and shower. I brought my own cosmetics, so it was not a problem that shampoo and conditioner were not provided.  TV and wi-fi were available in the large homey living room. Good coffee for free and a vending machine for sodas was in the kitchen. Fresh towels daily and room made up. There was no parking on site but parking was available for a fee nearby.More</t>
   </si>
   <si>
-    <t>yanspace</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r61901042-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -708,7 +982,40 @@
     <t>March 2010</t>
   </si>
   <si>
-    <t>123Avila</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r61863136-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>61863136</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We repeated our stay. Again, location was great for visiting UCLA and taking buses to Getty Villa and Getty Center. There is no parking at the hotel, and do not park in front of the hotel; you will get a ticket.  So this time we flew into LAX and took the FLYAWAY shuttle and were within a few blocks away from the hotel in no time. No need to rent a car if you are visiting UCLA and Westwood area. No in-room TV (a good thing), computer, or shampoo; older bathroom and room, but kept clean by very friendly and efficient housekeeping staff. Looked like room and bathroom have been repainted and repaired.  For food, Trader's Joe and Raley's are nearby and lots of good restaurants around such as Noodle Planet, one of our favorites. There is a microwave, fridge and free coffee and tea at the hotel for guest use.  So if you don't mind a simple, old but relatively clean place with characters and be aware of a few things, you will be fine in a most welcoming place ran by friendly staff: Scott and Leon. For the total price of $88 per night for two in Westwood Village, it's an excellent deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>We repeated our stay. Again, location was great for visiting UCLA and taking buses to Getty Villa and Getty Center. There is no parking at the hotel, and do not park in front of the hotel; you will get a ticket.  So this time we flew into LAX and took the FLYAWAY shuttle and were within a few blocks away from the hotel in no time. No need to rent a car if you are visiting UCLA and Westwood area. No in-room TV (a good thing), computer, or shampoo; older bathroom and room, but kept clean by very friendly and efficient housekeeping staff. Looked like room and bathroom have been repainted and repaired.  For food, Trader's Joe and Raley's are nearby and lots of good restaurants around such as Noodle Planet, one of our favorites. There is a microwave, fridge and free coffee and tea at the hotel for guest use.  So if you don't mind a simple, old but relatively clean place with characters and be aware of a few things, you will be fine in a most welcoming place ran by friendly staff: Scott and Leon. For the total price of $88 per night for two in Westwood Village, it's an excellent deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r31426157-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>31426157</t>
+  </si>
+  <si>
+    <t>06/02/2009</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>We were there in this hotel for 2 nights. It is very very basic hotel. It has very simple rooms with old furniture. There is no TV, no internet etc. in the room. You will not even find complementary drinking water. Internet is available in the lobby but the signals are very weak. The rent is low but it is good if you are looking for basic hotel.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r20044244-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -729,9 +1036,6 @@
     <t>Rooms with one bed in this hotel are $82.  With two beds they are $92.  Such prices are unheard of in Los Angeles, especially near UCLA.  You obviously can't expect a jacuzzi and all sorts of luxuries for such a price.  If you want more, you need to pay a lot more elsewhere and stop complaining.  With this said, this hotel reminded me of so many inexpensive hotels one can find in Europe.  You get  a small but clean room with old and tired furniture (book a room with two beds if they still have one, because it's larger).  No television and no samples provided for the bathroom (which, by the way, is very small).  There is an inexpensive public parking nearby.  People who talk about bedbugs are stretching the truth, to say the least.  The hotel would not be allowed to stay open if it were true.  As a whole, a decent hotel for young people who can't afford to pay the huge prices charged in LA.More</t>
   </si>
   <si>
-    <t>eskimokitty</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7846712-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -753,9 +1057,6 @@
     <t>Not for you monkey/sheep types. Definitely for those that can appreciate history/culture/preservation/community. Regarding the broken beds and the flea infestation , I would have to agree with the one review about neighboring fleabag motels that want Claremont's customers. Regarding peeling paint, would you rather they renovate and raise the price and/or cover the walls with wall paper, like everybody else, and unknowingly expose yourself to toxic mold that grows underneath the surface?  Personally, I have not experienced the peeling paint, unpleasant odors, or anything else of that nature.I have stayed at the Claremont on several different occasions. The only gripe I have is with those that are slamming this hotel for no justifiable reason.  Not recommended for those that must have it all and don't want to pay for it.  Highly recommended for those that can actually appreciate it for what it is. Think for yourself and you will be pleasantly surprised.More</t>
   </si>
   <si>
-    <t>lhasaapsoCalifornia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7568865-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -777,7 +1078,42 @@
     <t>My family and I stayed at this "tired" not charming hotel during a recent visit to UCLA.  As there were no suites left at the time of our booking, I stated that two rooms near each other would be ok.  Our children were given a room on the third floor and my husband and I were given a room on the second floor.  While my husband and I slept, the old bed broke underneath us not once but twice.  After the second time it collapsed, I told my husband leave it alone and let's just sleep on it sideways.  Throughout the night, I heard other beds collapsing through the paper thin walls and the international crowd screaming and cursing in surprise.  The price was cheap, the staff was friendly, the free coffee in the morning was decent.  This hotel provided lots of entertaining travel stories to share with friends and families, quite an adventure, but I wouldn't stay here again.More</t>
   </si>
   <si>
-    <t>joesorce</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r7271734-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7271734</t>
+  </si>
+  <si>
+    <t>04/01/2007</t>
+  </si>
+  <si>
+    <t>Great location, lousy room!</t>
+  </si>
+  <si>
+    <t>I laughed when I first walked into the Claremont. I thought "You have got to be KIDDING." As you have heard, the rooms have no televisions. The paint is peeling and the carpet is stained. One of the beds in my room was missing the headboard. The bathroom tile is extremely old. The soap comes from those soap dispensers you see in public restrooms. Make sure you bring your own shampoo, soap, etc., because they do not supply ANYTHING. When you flush the toilet, the pipes in the walls groan for a while. The walls are thin, so you can here everything your neighbor is doing (and I mean EVERYTHING). The door offers a lousy little push lock, with no bolt or chain. At least the water pressure is good, but it sprays like a high pressure hose, and feels like thousands of needles hitting your skin. Oh, and there wasn't nearly enough outlets in the room. I had to charge my laptop on the bathroom toilet because I didn't want to unplug the alarm clock. 
+I have to say though, the location is GREAT. There is an endless amount of things to do. The neighborhood feels safe, with hundreds of UCLA students roaming around. There is an endless array of shops and restaurants. Everything you need is within walking distance. I barely spent any time in the room. As long as one doesn't plan on spending much time in...I laughed when I first walked into the Claremont. I thought "You have got to be KIDDING." As you have heard, the rooms have no televisions. The paint is peeling and the carpet is stained. One of the beds in my room was missing the headboard. The bathroom tile is extremely old. The soap comes from those soap dispensers you see in public restrooms. Make sure you bring your own shampoo, soap, etc., because they do not supply ANYTHING. When you flush the toilet, the pipes in the walls groan for a while. The walls are thin, so you can here everything your neighbor is doing (and I mean EVERYTHING). The door offers a lousy little push lock, with no bolt or chain. At least the water pressure is good, but it sprays like a high pressure hose, and feels like thousands of needles hitting your skin. Oh, and there wasn't nearly enough outlets in the room. I had to charge my laptop on the bathroom toilet because I didn't want to unplug the alarm clock. I have to say though, the location is GREAT. There is an endless amount of things to do. The neighborhood feels safe, with hundreds of UCLA students roaming around. There is an endless array of shops and restaurants. Everything you need is within walking distance. I barely spent any time in the room. As long as one doesn't plan on spending much time in the room, this hotel may actually be okay. The location made it worth it for me. Just keep your expectations low, and don't expect room service.MoreShow less</t>
+  </si>
+  <si>
+    <t>I laughed when I first walked into the Claremont. I thought "You have got to be KIDDING." As you have heard, the rooms have no televisions. The paint is peeling and the carpet is stained. One of the beds in my room was missing the headboard. The bathroom tile is extremely old. The soap comes from those soap dispensers you see in public restrooms. Make sure you bring your own shampoo, soap, etc., because they do not supply ANYTHING. When you flush the toilet, the pipes in the walls groan for a while. The walls are thin, so you can here everything your neighbor is doing (and I mean EVERYTHING). The door offers a lousy little push lock, with no bolt or chain. At least the water pressure is good, but it sprays like a high pressure hose, and feels like thousands of needles hitting your skin. Oh, and there wasn't nearly enough outlets in the room. I had to charge my laptop on the bathroom toilet because I didn't want to unplug the alarm clock. 
+I have to say though, the location is GREAT. There is an endless amount of things to do. The neighborhood feels safe, with hundreds of UCLA students roaming around. There is an endless array of shops and restaurants. Everything you need is within walking distance. I barely spent any time in the room. As long as one doesn't plan on spending much time in...I laughed when I first walked into the Claremont. I thought "You have got to be KIDDING." As you have heard, the rooms have no televisions. The paint is peeling and the carpet is stained. One of the beds in my room was missing the headboard. The bathroom tile is extremely old. The soap comes from those soap dispensers you see in public restrooms. Make sure you bring your own shampoo, soap, etc., because they do not supply ANYTHING. When you flush the toilet, the pipes in the walls groan for a while. The walls are thin, so you can here everything your neighbor is doing (and I mean EVERYTHING). The door offers a lousy little push lock, with no bolt or chain. At least the water pressure is good, but it sprays like a high pressure hose, and feels like thousands of needles hitting your skin. Oh, and there wasn't nearly enough outlets in the room. I had to charge my laptop on the bathroom toilet because I didn't want to unplug the alarm clock. I have to say though, the location is GREAT. There is an endless amount of things to do. The neighborhood feels safe, with hundreds of UCLA students roaming around. There is an endless array of shops and restaurants. Everything you need is within walking distance. I barely spent any time in the room. As long as one doesn't plan on spending much time in the room, this hotel may actually be okay. The location made it worth it for me. Just keep your expectations low, and don't expect room service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5623886-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5623886</t>
+  </si>
+  <si>
+    <t>08/17/2006</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>A simple warning -- stay away from the Claremont Hotel.  The rooms are stifflingly hot without A/C, some rooms have flea infestations, many room keys open doors to other rooms (a friend had a mentally unstable guest walk into her room this way), and my first floor room had a large, ground level window with any lock or security features.   Add to this cleanliness issues, weird smells, and an utterly disinterested management, who treated these problems with a shoulder shrug, and you can see why one needs to avoid this hotel.  In short: the money you might save with their rock-bottom room rates is **NOT** worth the discomfort and potential security risks you'll have to put up with.MoreShow less</t>
+  </si>
+  <si>
+    <t>A simple warning -- stay away from the Claremont Hotel.  The rooms are stifflingly hot without A/C, some rooms have flea infestations, many room keys open doors to other rooms (a friend had a mentally unstable guest walk into her room this way), and my first floor room had a large, ground level window with any lock or security features.   Add to this cleanliness issues, weird smells, and an utterly disinterested management, who treated these problems with a shoulder shrug, and you can see why one needs to avoid this hotel.  In short: the money you might save with their rock-bottom room rates is **NOT** worth the discomfort and potential security risks you'll have to put up with.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5619249-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -805,9 +1141,6 @@
  There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take...This "hotel" is basically a flophouse....a place for students on a budget, a decent alternative to a hostel.  Our 2-double bed room was $79 a night in 2006 for 3 people and I would call it a $29 room in a $50 location.  The furniture was old (original)...original OLD bath tiles &amp; flooring...not an updated or renovated place by any means.  No A/C but this is an area that gets SOME residual ocean breezes and is not as hot as Hollywood/L.A.  If "security" is your issue, this little hotel really doesn't have any but there is 24 hour desk coverage at the entrance. Also, it's in a residential area with apts and people nearby so just a scream would be heard by hundreds.  The Westwood area is safe round the clock with lots of students and residents roaming the streets, but like anywhere else you don't walk around screaming "I'm a tourist see my fanny pack and diamond rings?" Yes, there are a few homeless people around at times because they go wherever the crowds are, many movie theatres etc in the area attract crowds. Very safe area as L.A. goes but this is not Mayberry RFD There was bus service to anywhere we wanted to go right around the corner...$3 got us a daily bus pass and we roamed and toured and observed. When you're done  "bus touring" you just get off the bus, cross the street, and take the other bus back towards your hotel.Very convenient to visiting the Getty Center, Beverly Hills, Santa Monica. On a deep budget, instead of a shuttle you could even take the city bus here from LAX without too much luggage.     If you have a car here the street parking/meters will be a hassle. There are parking garages a short walk as well as a huge grocery and a drug store. Would I put up my parents here if they were visiting UCLA? Only if they are used to "roughing it".  The location would probably be well-worth the dumpiness, but the Hilgard House nearby for $35 more a night is well worth it for the comfort.  The room was clean.  I think the other reviews that mention "fleas" are probably posted by the neighboring fleabag motels that want Claremont's customers.  And the "glowing" review calling this place charming is a little over the top in the other direction. Whether or not I would recommend this flophouse would totally depend on the customer.  For backpacking students who are used to hostels and European b&amp;bs, TOTALLY.  The location is great for students and travelers, one of the best in all of Los Angeles as far as convenient public transportation, cheap dining options etc. For UCLA parents? Not unless it's the only choice available in the area that you can afford. Expect the worse and you'll be pleasantly surprised.  Expect the Ritz and you'll be sorry.More</t>
   </si>
   <si>
-    <t>WaverlySharon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5511659-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -826,9 +1159,6 @@
     <t>This hotel is listed on the UCLA website as a suggestion for visitors.  It is very inexpensive ($60/night), but you get what you pay for.  The hotel is very old and hasn't been updated.  There is a spacious balcony and lobby with free wireless internet, but the furniture is torn and stained.  The rooms are tiny, hot, dirty, and mine was flea infested (as were several others at the same time).  Management was indifferent at best.  I'd highly recommend the hotel next door--the Palace Royal Westwood.  Same great location, but clean, spacious rooms.  And, when you figure free hardwire internet, tv in room, ac, and free parking, it's a bargain relative to the Claremont.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r5358047-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -845,6 +1175,42 @@
   </si>
   <si>
     <t>Personally, I would not recommend this hotel.  The rooms are old, the hotel does not smell pleasant but given the relative affordibility one would think that it is worth a 2 night stay. Unfortunately, we had such a bad experience with the staff there that even that was not worth it.  This one particular staff was so unpleasant that we decided to go to the hotel next door even though it was 50 dollars more expensive.  I have never had such poor service and such a poor impression of any motel/hotel or any business for that matter.Overall, you'll have a better stay at any other hotel in westwood than this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r4975447-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4975447</t>
+  </si>
+  <si>
+    <t>04/14/2006</t>
+  </si>
+  <si>
+    <t>minimal, no parking</t>
+  </si>
+  <si>
+    <t>The Claremont is old, indeed, with apparently the original bathroom fixtures and furniture.  The rooms are without TV and mine did not have a toilet tissue holder.  Beds are uncomfortable. Soap is in dispensers.  Noisy neighbors will be clearly heard. No parking is available through the hotel and none is available on the street.  The nearest parking garage is 4 blocks away and charges $10.00 per day or an appreciable fraction of a day like overnight.  The location is great and the staff is friendly.  Factoring in the cost of parking, you would be better off in a more modern hotel that charges more, but includes parking.  Next time I go to UCLA, I will try to book the UCLA guest house.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Claremont is old, indeed, with apparently the original bathroom fixtures and furniture.  The rooms are without TV and mine did not have a toilet tissue holder.  Beds are uncomfortable. Soap is in dispensers.  Noisy neighbors will be clearly heard. No parking is available through the hotel and none is available on the street.  The nearest parking garage is 4 blocks away and charges $10.00 per day or an appreciable fraction of a day like overnight.  The location is great and the staff is friendly.  Factoring in the cost of parking, you would be better off in a more modern hotel that charges more, but includes parking.  Next time I go to UCLA, I will try to book the UCLA guest house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r3440090-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3440090</t>
+  </si>
+  <si>
+    <t>05/04/2005</t>
+  </si>
+  <si>
+    <t>Charming</t>
+  </si>
+  <si>
+    <t>The Claremont is a charming old hotel located in Westwood near UCLA. This is a nice location with a trendy downtown area nearby and the university at hand. The rooms have lovely high ceilings with overhead fans, windows that actually open, antique furnishings, adequate baths, and a wonderful friendly atmosphere and staff. The price is amazing, and all in all it was a very pleasant experience. I highly recommend the hotel, especially for those who want to get away from a plastic chain experience that is identical to the same hotel experience no matter the city.</t>
+  </si>
+  <si>
+    <t>April 2005</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d119434-r2998194-The_Claremont_Hotel_Westwood-Los_Angeles_California.html</t>
@@ -1388,445 +1754,391 @@
       <c r="A2" t="n">
         <v>45811</v>
       </c>
-      <c r="B2" t="n">
-        <v>161439</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>45811</v>
       </c>
-      <c r="B3" t="n">
-        <v>161440</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>45811</v>
       </c>
-      <c r="B4" t="n">
-        <v>161441</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>45811</v>
       </c>
-      <c r="B5" t="n">
-        <v>6537</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>45811</v>
       </c>
-      <c r="B6" t="n">
-        <v>161442</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
-        <v>80</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>45811</v>
       </c>
-      <c r="B7" t="n">
-        <v>161443</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" t="s">
-        <v>80</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>45811</v>
       </c>
-      <c r="B8" t="n">
-        <v>161444</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1840,470 +2152,436 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>45811</v>
       </c>
-      <c r="B9" t="n">
-        <v>161445</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>45811</v>
       </c>
-      <c r="B10" t="n">
-        <v>161446</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>45811</v>
       </c>
-      <c r="B11" t="n">
-        <v>161447</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>45811</v>
       </c>
-      <c r="B12" t="n">
-        <v>161448</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>45811</v>
       </c>
-      <c r="B13" t="n">
-        <v>161449</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>45811</v>
       </c>
-      <c r="B14" t="n">
-        <v>74330</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>45811</v>
       </c>
-      <c r="B15" t="n">
-        <v>7533</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2311,134 +2589,114 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>45811</v>
       </c>
-      <c r="B16" t="n">
-        <v>161450</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>45811</v>
       </c>
-      <c r="B17" t="n">
-        <v>161451</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>4</v>
@@ -2449,70 +2707,58 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>45811</v>
       </c>
-      <c r="B18" t="n">
-        <v>161452</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2520,212 +2766,176 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>45811</v>
       </c>
-      <c r="B19" t="n">
-        <v>55230</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>45811</v>
       </c>
-      <c r="B20" t="n">
-        <v>161453</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>45811</v>
       </c>
-      <c r="B21" t="n">
-        <v>161454</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
         <v>4</v>
       </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2733,70 +2943,62 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>45811</v>
       </c>
-      <c r="B22" t="n">
-        <v>161455</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2804,70 +3006,62 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>45811</v>
       </c>
-      <c r="B23" t="n">
-        <v>161456</v>
-      </c>
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>119</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2875,57 +3069,49 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>45811</v>
       </c>
-      <c r="B24" t="n">
-        <v>161457</v>
-      </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="s">
-        <v>219</v>
-      </c>
-      <c r="O24" t="s">
-        <v>119</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
@@ -2946,70 +3132,60 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>45811</v>
       </c>
-      <c r="B25" t="n">
-        <v>161458</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
-        <v>227</v>
-      </c>
-      <c r="O25" t="s">
-        <v>96</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3017,51 +3193,51 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>45811</v>
       </c>
-      <c r="B26" t="n">
-        <v>161459</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
       <c r="P26" t="n">
         <v>3</v>
       </c>
@@ -3069,14 +3245,14 @@
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3084,70 +3260,66 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>45811</v>
       </c>
-      <c r="B27" t="n">
-        <v>161460</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3155,68 +3327,66 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>45811</v>
       </c>
-      <c r="B28" t="n">
-        <v>161461</v>
-      </c>
-      <c r="C28" t="s">
-        <v>243</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3224,70 +3394,62 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>45811</v>
       </c>
-      <c r="B29" t="n">
-        <v>161462</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s">
-        <v>257</v>
-      </c>
-      <c r="O29" t="s">
-        <v>128</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
         <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3295,135 +3457,127 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>45811</v>
       </c>
-      <c r="B30" t="n">
-        <v>161463</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>45811</v>
       </c>
-      <c r="B31" t="n">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>266</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3431,64 +3585,62 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>45811</v>
       </c>
-      <c r="B32" t="n">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>266</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3500,64 +3652,1606 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>45811</v>
       </c>
-      <c r="B33" t="n">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>266</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="N33" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>262</v>
+      </c>
+      <c r="J36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>265</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>266</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s">
+        <v>277</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s">
+        <v>128</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
         <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>307</v>
+      </c>
+      <c r="J43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>311</v>
+      </c>
+      <c r="O43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s">
+        <v>316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>128</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K45" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" t="s">
+        <v>322</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>323</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" t="s">
+        <v>326</v>
+      </c>
+      <c r="K46" t="s">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>342</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" t="s">
+        <v>346</v>
+      </c>
+      <c r="K49" t="s">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s">
+        <v>348</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51" t="s">
+        <v>358</v>
+      </c>
+      <c r="K51" t="s">
+        <v>359</v>
+      </c>
+      <c r="L51" t="s">
+        <v>360</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" t="s">
+        <v>177</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>364</v>
+      </c>
+      <c r="J52" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s">
+        <v>367</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>361</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s">
+        <v>373</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J55" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56" t="s">
+        <v>391</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>395</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+      <c r="K57" t="s">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s">
+        <v>398</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
